--- a/palestras.xlsx
+++ b/palestras.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Planilha-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="102">
   <si>
     <t>Nome</t>
   </si>
@@ -57,438 +57,6 @@
   </si>
   <si>
     <t>Avaliação Final</t>
-  </si>
-  <si>
-    <t>Gabriel Fernando dos Santos Cocovilo</t>
-  </si>
-  <si>
-    <t>Ramon Guilherme de Paula</t>
-  </si>
-  <si>
-    <t>Wesley Campi Ferreira</t>
-  </si>
-  <si>
-    <t>Wilhamn Lopes</t>
-  </si>
-  <si>
-    <t>Isabella Caetano Rosa</t>
-  </si>
-  <si>
-    <t>Lucas Moreira dos Santos</t>
-  </si>
-  <si>
-    <t>Luana Maria Ferreira Gomes</t>
-  </si>
-  <si>
-    <t>Beatriz C. Ricetti Biazotto</t>
-  </si>
-  <si>
-    <t>Gabriel Marconato</t>
-  </si>
-  <si>
-    <t>Bruno Mendes de Menezes</t>
-  </si>
-  <si>
-    <t>Giovana Ap. da Silva</t>
-  </si>
-  <si>
-    <t>Marcelo Adriano Bianchin Filho</t>
-  </si>
-  <si>
-    <t>Ana Alice Rezende Rodrigues</t>
-  </si>
-  <si>
-    <t>Carlos Marino Lagalo Jr.</t>
-  </si>
-  <si>
-    <t>Beatriz Netto Prolomini</t>
-  </si>
-  <si>
-    <t>João Vitor Cidério</t>
-  </si>
-  <si>
-    <t>Abel Eduardo Papaioli Choque</t>
-  </si>
-  <si>
-    <t>Adrielle F. Rovigati</t>
-  </si>
-  <si>
-    <t>Maria Polyane Faria Angentini</t>
-  </si>
-  <si>
-    <t>Luany de Oliveira Salin</t>
-  </si>
-  <si>
-    <t>Gabrielle F. S. Grubilato</t>
-  </si>
-  <si>
-    <t>Luciane de Macedo Costa</t>
-  </si>
-  <si>
-    <t>Maria Júlia Spreáfico Lopes</t>
-  </si>
-  <si>
-    <t>Gabrella Royna</t>
-  </si>
-  <si>
-    <t>Hillary Campos</t>
-  </si>
-  <si>
-    <t>Katleen Maria Alves Cocovilo</t>
-  </si>
-  <si>
-    <t>Jaqueline Samantha Ferreira</t>
-  </si>
-  <si>
-    <t>Victória Fotobone Ornoafri</t>
-  </si>
-  <si>
-    <t>Ghilherme Tabarin de Morais</t>
-  </si>
-  <si>
-    <t>Emanuel Carlos Machado</t>
-  </si>
-  <si>
-    <t>Bianca Beraldo</t>
-  </si>
-  <si>
-    <t>Stephanie Trevizan dos Santos</t>
-  </si>
-  <si>
-    <t>Mariana Marconato</t>
-  </si>
-  <si>
-    <t>Luis Fernando Faria Rodrigues</t>
-  </si>
-  <si>
-    <t>Vinicius Matheus Bento</t>
-  </si>
-  <si>
-    <t>Ana Julia Soto</t>
-  </si>
-  <si>
-    <t>Matheus Marcondes</t>
-  </si>
-  <si>
-    <t>Giovana Oriques</t>
-  </si>
-  <si>
-    <t>Natacha Martins</t>
-  </si>
-  <si>
-    <t>Sabrina Matino Munhoz</t>
-  </si>
-  <si>
-    <t>Maria Julia S. Tisma</t>
-  </si>
-  <si>
-    <t>Maria Eduarda Mabelini</t>
-  </si>
-  <si>
-    <t>Stefani P. Da Silva</t>
-  </si>
-  <si>
-    <t>Pedro Gabriel Casagrande Moreira</t>
-  </si>
-  <si>
-    <t>Ma Eduarda G. Bertuchi</t>
-  </si>
-  <si>
-    <t>Daniele de Lima Oliveira Lopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Flávia Bernardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel </t>
-  </si>
-  <si>
-    <t>Diego Beli</t>
-  </si>
-  <si>
-    <t>Beatriz</t>
-  </si>
-  <si>
-    <t>Marcos Paulo da Silva Ribeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Paulo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josiane Stefani </t>
-  </si>
-  <si>
-    <t>Vanessa da Silva Gonçalves</t>
-  </si>
-  <si>
-    <t>João Pedro Ribeiro</t>
-  </si>
-  <si>
-    <t>Maria Eduarda Oliveira</t>
-  </si>
-  <si>
-    <t>Giulia Izidoro Colozza</t>
-  </si>
-  <si>
-    <t>Pamela Ketty da Costa</t>
-  </si>
-  <si>
-    <t>Welllington Igor Pezotti</t>
-  </si>
-  <si>
-    <t>João Victor da Silva Ribeiro</t>
-  </si>
-  <si>
-    <t>Thaynara Galharde Fratia</t>
-  </si>
-  <si>
-    <t>Daniela da Silva Chiorato</t>
-  </si>
-  <si>
-    <t>Amanda Gonçalves da Silva</t>
-  </si>
-  <si>
-    <t>Ana Beatriz Soto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Julia Quirino Francisco </t>
-  </si>
-  <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>Débora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Gabriella </t>
-  </si>
-  <si>
-    <t>Higor Buzelli</t>
-  </si>
-  <si>
-    <t>Rafael Franco</t>
-  </si>
-  <si>
-    <t>Igor Evaristo Marolli</t>
-  </si>
-  <si>
-    <t>Lucas Henrique Trevisan Correia</t>
-  </si>
-  <si>
-    <t>Luara Vitoria Marques</t>
-  </si>
-  <si>
-    <t>Mariana Helena Moriconi</t>
-  </si>
-  <si>
-    <t>Giovana B. Ribeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Monteiro C. Silva </t>
-  </si>
-  <si>
-    <t>Daniela Ragazzo da Silva</t>
-  </si>
-  <si>
-    <t>Fernanda Flaussino Pizzi</t>
-  </si>
-  <si>
-    <t>José Ricardo Lelis Perez</t>
-  </si>
-  <si>
-    <t>Julia Caroline Amâncio Conde</t>
-  </si>
-  <si>
-    <t>Vitória Carolina Feliciano</t>
-  </si>
-  <si>
-    <t>Diego Luiz Gomes Marchiori</t>
-  </si>
-  <si>
-    <t>Maria Eduarda Lopes Melo</t>
-  </si>
-  <si>
-    <t>Luiza Almeida</t>
-  </si>
-  <si>
-    <t>Júlia G. Turganti Martins</t>
-  </si>
-  <si>
-    <t>Vinicius Vieira da Silva</t>
-  </si>
-  <si>
-    <t>Amanda Casula</t>
-  </si>
-  <si>
-    <t>Julia Helena Formaio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabela </t>
-  </si>
-  <si>
-    <t>Lucca Carvalho</t>
-  </si>
-  <si>
-    <t>Clayton Pariz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otávio Gonçalves </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antônio </t>
-  </si>
-  <si>
-    <t>Eduardo Marques dos Reis</t>
-  </si>
-  <si>
-    <t>Jeysiel Lucas Ribeiro da Silva</t>
-  </si>
-  <si>
-    <t>* Henrique da Silva</t>
-  </si>
-  <si>
-    <t>Felipe de Freitas Vaz</t>
-  </si>
-  <si>
-    <t>Viviane Pimentel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo </t>
-  </si>
-  <si>
-    <t>Giovana Bosso</t>
-  </si>
-  <si>
-    <t>Giovanna Hilton Monfardini</t>
-  </si>
-  <si>
-    <t>Vitória Cássia Carretero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathalia S. Filomeno </t>
-  </si>
-  <si>
-    <t>Romeu Auesio Tavares</t>
-  </si>
-  <si>
-    <t>Jadney Gabriele Nunes</t>
-  </si>
-  <si>
-    <t>Vitor M. Moreira</t>
-  </si>
-  <si>
-    <t>* Vinicius Ferreira Batista</t>
-  </si>
-  <si>
-    <t>Ghilherme Mateus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanessa dos Santos </t>
-  </si>
-  <si>
-    <t>Telma Maria de Oliveira</t>
-  </si>
-  <si>
-    <t>Geovane Xavier Frederico</t>
-  </si>
-  <si>
-    <t>Gabriel de Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evellyn Adriane </t>
-  </si>
-  <si>
-    <t>Matheus Grillce Ferreira de Freitas</t>
-  </si>
-  <si>
-    <t>Jeferson Carvalho</t>
-  </si>
-  <si>
-    <t>Iago Leônidas de Oliveira</t>
-  </si>
-  <si>
-    <t>Julia V. Mateus</t>
-  </si>
-  <si>
-    <t>Leidiane Azevedo Damasceno</t>
-  </si>
-  <si>
-    <t>Beatriz Marine Brasil</t>
-  </si>
-  <si>
-    <t>Janaina Santos Nascimento</t>
-  </si>
-  <si>
-    <t>Kaue Toledo</t>
-  </si>
-  <si>
-    <t>Gabriel Marchiori</t>
-  </si>
-  <si>
-    <t>Gabriela Mouro</t>
-  </si>
-  <si>
-    <t>Emanuelle Fazanaro de Godoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natália Peccin </t>
-  </si>
-  <si>
-    <t>Thainá Cristina Ramos dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela Pineda Correa </t>
-  </si>
-  <si>
-    <t>Elessia</t>
-  </si>
-  <si>
-    <t>Gabrieli Queiroz Rosales</t>
-  </si>
-  <si>
-    <t>Amanda de Cássia Oliveira Freitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamella Arruda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel </t>
-  </si>
-  <si>
-    <t>Daniel Friel</t>
-  </si>
-  <si>
-    <t>Paulo R. Aragão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natália Bianca </t>
-  </si>
-  <si>
-    <t>Lucas Aguiar Nobre</t>
-  </si>
-  <si>
-    <t>Vitória Emanuelle</t>
-  </si>
-  <si>
-    <t>Laryssa de Lima Cryz</t>
-  </si>
-  <si>
-    <t>Kitolyn V. de Oliveira</t>
-  </si>
-  <si>
-    <t>Luis Gustavo F.</t>
-  </si>
-  <si>
-    <t>Isamara dos Santos</t>
-  </si>
-  <si>
-    <t>Letícia Fernanda Banchete</t>
-  </si>
-  <si>
-    <t>Nicoly Abreu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michelle Cristina Furtado </t>
   </si>
   <si>
     <t>Escola</t>
@@ -635,9 +203,6 @@
     <t>Engenharia Mecânica</t>
   </si>
   <si>
-    <t>Enzo Amin S. Santos</t>
-  </si>
-  <si>
     <t>Ciências Contabéis</t>
   </si>
   <si>
@@ -713,9 +278,6 @@
     <t>Engenharia Química</t>
   </si>
   <si>
-    <t>Lauani Gabrielli Venâncio</t>
-  </si>
-  <si>
     <t>Matemática</t>
   </si>
   <si>
@@ -741,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">Biológicas </t>
-  </si>
-  <si>
-    <t>Thaynara C. Lider</t>
   </si>
   <si>
     <t>Biológica</t>
@@ -772,12 +331,15 @@
   <si>
     <t>Total Campus (Não)</t>
   </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,15 +366,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1001,12 +554,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,6 +571,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11780,8 +11333,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AV213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11813,7 +11366,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -11846,19 +11399,19 @@
         <v>9</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -11895,52 +11448,52 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="12">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12">
+        <v>5</v>
+      </c>
+      <c r="K2" s="19">
+        <v>5</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12">
-        <v>5</v>
-      </c>
-      <c r="E2" s="12">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12">
-        <v>5</v>
-      </c>
-      <c r="H2" s="12">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12">
-        <v>5</v>
-      </c>
-      <c r="J2" s="12">
-        <v>5</v>
-      </c>
-      <c r="K2" s="19">
-        <v>5</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>170</v>
-      </c>
       <c r="M2" s="24" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11977,8 +11530,8 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
+      <c r="B3" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="12">
         <v>4</v>
@@ -12008,19 +11561,19 @@
         <v>5</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12057,8 +11610,8 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
+      <c r="B4" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C4" s="12">
         <v>5</v>
@@ -12088,19 +11641,19 @@
         <v>5</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -12137,8 +11690,8 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
+      <c r="B5" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="12">
         <v>5</v>
@@ -12168,23 +11721,23 @@
         <v>4</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="40" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="S5" s="41"/>
       <c r="T5" s="1"/>
@@ -12219,8 +11772,8 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
+      <c r="B6" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C6" s="12">
         <v>4</v>
@@ -12250,26 +11803,26 @@
         <v>4</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="29">
+      <c r="R6" s="28">
         <v>1</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -12303,8 +11856,8 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="7" t="s">
-        <v>56</v>
+      <c r="B7" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="12">
         <v>4</v>
@@ -12334,26 +11887,26 @@
         <v>4</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="29">
+      <c r="R7" s="28">
         <v>2</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -12387,8 +11940,8 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
+      <c r="B8" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C8" s="12">
         <v>5</v>
@@ -12418,24 +11971,24 @@
         <v>5</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="29">
+      <c r="R8" s="28">
         <v>3</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -12469,8 +12022,8 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
+      <c r="B9" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C9" s="12">
         <v>5</v>
@@ -12500,24 +12053,24 @@
         <v>5</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="29">
+      <c r="R9" s="28">
         <v>4</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -12551,8 +12104,8 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="7" t="s">
-        <v>59</v>
+      <c r="B10" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="12">
         <v>5</v>
@@ -12582,26 +12135,26 @@
         <v>4</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="29">
+      <c r="R10" s="28">
         <v>5</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -12635,8 +12188,8 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
+      <c r="B11" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C11" s="12">
         <v>5</v>
@@ -12666,23 +12219,23 @@
         <v>4</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -12715,8 +12268,8 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
+      <c r="B12" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C12" s="12">
         <v>5</v>
@@ -12746,19 +12299,19 @@
         <v>5</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -12795,8 +12348,8 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="B13" s="7" t="s">
-        <v>40</v>
+      <c r="B13" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C13" s="12">
         <v>5</v>
@@ -12826,19 +12379,19 @@
         <v>4</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -12875,8 +12428,8 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
+      <c r="B14" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="12">
         <v>5</v>
@@ -12906,19 +12459,19 @@
         <v>5</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -12955,8 +12508,8 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
+      <c r="B15" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="12">
         <v>4</v>
@@ -12986,17 +12539,17 @@
         <v>4</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -13033,8 +12586,8 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="7" t="s">
-        <v>71</v>
+      <c r="B16" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C16" s="12">
         <v>4</v>
@@ -13064,19 +12617,19 @@
         <v>4</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -13113,8 +12666,8 @@
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
-      <c r="B17" s="7" t="s">
-        <v>86</v>
+      <c r="B17" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C17" s="12">
         <v>5</v>
@@ -13144,19 +12697,19 @@
         <v>4</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -13193,8 +12746,8 @@
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
+      <c r="B18" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="12">
         <v>4</v>
@@ -13224,19 +12777,19 @@
         <v>3</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -13273,8 +12826,8 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
-      <c r="B19" s="7" t="s">
-        <v>76</v>
+      <c r="B19" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C19" s="12">
         <v>5</v>
@@ -13304,17 +12857,17 @@
         <v>4</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -13351,8 +12904,8 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="7" t="s">
-        <v>58</v>
+      <c r="B20" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="12">
         <v>4</v>
@@ -13382,19 +12935,19 @@
         <v>4</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -13431,8 +12984,8 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="7" t="s">
-        <v>91</v>
+      <c r="B21" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="12">
         <v>5</v>
@@ -13462,19 +13015,19 @@
         <v>5</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -13511,8 +13064,8 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
-      <c r="B22" s="7" t="s">
-        <v>39</v>
+      <c r="B22" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C22" s="12">
         <v>4</v>
@@ -13542,19 +13095,19 @@
         <v>4</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -13591,8 +13144,8 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="7" t="s">
-        <v>87</v>
+      <c r="B23" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C23" s="12">
         <v>4</v>
@@ -13622,19 +13175,19 @@
         <v>5</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -13671,8 +13224,8 @@
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="7" t="s">
-        <v>33</v>
+      <c r="B24" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="12">
         <v>5</v>
@@ -13702,19 +13255,19 @@
         <v>4</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -13751,8 +13304,8 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="7" t="s">
-        <v>57</v>
+      <c r="B25" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
@@ -13782,19 +13335,19 @@
         <v>4</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -13831,8 +13384,8 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="7" t="s">
-        <v>10</v>
+      <c r="B26" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="12">
         <v>5</v>
@@ -13862,17 +13415,17 @@
         <v>5</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -13909,8 +13462,8 @@
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="7" t="s">
-        <v>18</v>
+      <c r="B27" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C27" s="12">
         <v>5</v>
@@ -13940,19 +13493,19 @@
         <v>5</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -13989,8 +13542,8 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="7" t="s">
-        <v>85</v>
+      <c r="B28" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C28" s="12">
         <v>5</v>
@@ -14020,19 +13573,19 @@
         <v>5</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -14069,8 +13622,8 @@
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
+      <c r="B29" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="12">
         <v>4</v>
@@ -14100,25 +13653,25 @@
         <v>4</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="S29" s="34"/>
+      <c r="R29" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="36"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -14151,8 +13704,8 @@
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="7" t="s">
-        <v>38</v>
+      <c r="B30" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="12">
         <v>5</v>
@@ -14182,23 +13735,23 @@
         <v>4</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="S30" s="24">
         <v>50</v>
@@ -14235,8 +13788,8 @@
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="7" t="s">
-        <v>20</v>
+      <c r="B31" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C31" s="12">
         <v>4</v>
@@ -14266,23 +13819,23 @@
         <v>5</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="S31" s="24">
         <v>32</v>
@@ -14319,8 +13872,8 @@
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="7" t="s">
-        <v>84</v>
+      <c r="B32" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="12">
         <v>4</v>
@@ -14350,17 +13903,17 @@
         <v>5</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="22"/>
@@ -14397,8 +13950,8 @@
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
-      <c r="B33" s="7" t="s">
-        <v>47</v>
+      <c r="B33" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C33" s="12">
         <v>5</v>
@@ -14428,25 +13981,25 @@
         <v>5</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="S33" s="34"/>
+      <c r="R33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="S33" s="36"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -14479,8 +14032,8 @@
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="7" t="s">
-        <v>66</v>
+      <c r="B34" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="12">
         <v>5</v>
@@ -14510,23 +14063,23 @@
         <v>5</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="S34" s="24">
         <v>69</v>
@@ -14563,8 +14116,8 @@
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
-      <c r="B35" s="7" t="s">
-        <v>78</v>
+      <c r="B35" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C35" s="12">
         <v>4</v>
@@ -14594,23 +14147,23 @@
         <v>5</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="30" t="s">
-        <v>173</v>
+      <c r="R35" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="S35" s="24">
         <v>13</v>
@@ -14647,8 +14200,8 @@
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
-      <c r="B36" s="7" t="s">
-        <v>34</v>
+      <c r="B36" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C36" s="12">
         <v>4</v>
@@ -14678,17 +14231,17 @@
         <v>5</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="22"/>
@@ -14725,8 +14278,8 @@
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
-      <c r="B37" s="7" t="s">
-        <v>80</v>
+      <c r="B37" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C37" s="12">
         <v>5</v>
@@ -14754,25 +14307,25 @@
         <v>5</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="S37" s="37"/>
+      <c r="R37" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S37" s="34"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -14805,8 +14358,8 @@
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="7" t="s">
-        <v>14</v>
+      <c r="B38" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C38" s="12">
         <v>4</v>
@@ -14836,23 +14389,23 @@
         <v>4</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="30" t="s">
-        <v>172</v>
+      <c r="R38" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="S38" s="24">
         <v>48</v>
@@ -14889,8 +14442,8 @@
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
-      <c r="B39" s="7" t="s">
-        <v>36</v>
+      <c r="B39" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C39" s="12">
         <v>5</v>
@@ -14920,23 +14473,23 @@
         <v>5</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="30" t="s">
-        <v>173</v>
+      <c r="R39" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="S39" s="24">
         <v>34</v>
@@ -14973,8 +14526,8 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
-      <c r="B40" s="7" t="s">
-        <v>64</v>
+      <c r="B40" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C40" s="12">
         <v>5</v>
@@ -15004,19 +14557,19 @@
         <v>5</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="22"/>
@@ -15053,8 +14606,8 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
-      <c r="B41" s="7" t="s">
-        <v>69</v>
+      <c r="B41" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="12">
         <v>3</v>
@@ -15084,23 +14637,23 @@
         <v>3</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="S41" s="34"/>
+      <c r="R41" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S41" s="36"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -15133,8 +14686,8 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
-      <c r="B42" s="7" t="s">
-        <v>25</v>
+      <c r="B42" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C42" s="12">
         <v>4</v>
@@ -15164,23 +14717,23 @@
         <v>5</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="S42" s="24">
         <v>28</v>
@@ -15217,8 +14770,8 @@
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
-      <c r="B43" s="7" t="s">
-        <v>61</v>
+      <c r="B43" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C43" s="12">
         <v>4</v>
@@ -15248,23 +14801,23 @@
         <v>3</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="S43" s="24">
         <v>54</v>
@@ -15301,8 +14854,8 @@
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="25" t="s">
-        <v>88</v>
+      <c r="B44" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C44" s="12">
         <v>5</v>
@@ -15371,8 +14924,8 @@
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
-      <c r="B45" s="7" t="s">
-        <v>62</v>
+      <c r="B45" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C45" s="12">
         <v>5</v>
@@ -15402,19 +14955,19 @@
         <v>5</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -15451,8 +15004,8 @@
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
-      <c r="B46" s="7" t="s">
-        <v>89</v>
+      <c r="B46" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C46" s="12">
         <v>4</v>
@@ -15482,19 +15035,19 @@
         <v>4</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -15531,8 +15084,8 @@
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
-      <c r="B47" s="7" t="s">
-        <v>35</v>
+      <c r="B47" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="12">
         <v>5</v>
@@ -15562,17 +15115,17 @@
         <v>5</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -15609,8 +15162,8 @@
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="7" t="s">
-        <v>228</v>
+      <c r="B48" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C48" s="12">
         <v>5</v>
@@ -15640,19 +15193,19 @@
         <v>5</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -15689,8 +15242,8 @@
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
-      <c r="B49" s="7" t="s">
-        <v>16</v>
+      <c r="B49" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C49" s="12">
         <v>5</v>
@@ -15720,19 +15273,19 @@
         <v>4</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -15769,8 +15322,8 @@
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
-      <c r="B50" s="7" t="s">
-        <v>29</v>
+      <c r="B50" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C50" s="12">
         <v>5</v>
@@ -15800,19 +15353,19 @@
         <v>3</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -15849,8 +15402,8 @@
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
-      <c r="B51" s="7" t="s">
-        <v>82</v>
+      <c r="B51" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -15880,19 +15433,19 @@
         <v>4</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -15929,8 +15482,8 @@
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
-      <c r="B52" s="7" t="s">
-        <v>81</v>
+      <c r="B52" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C52" s="12">
         <v>4</v>
@@ -15960,19 +15513,19 @@
         <v>5</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -16009,8 +15562,8 @@
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="7" t="s">
-        <v>15</v>
+      <c r="B53" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C53" s="12">
         <v>5</v>
@@ -16040,17 +15593,17 @@
         <v>4</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -16087,8 +15640,8 @@
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
-      <c r="B54" s="7" t="s">
-        <v>31</v>
+      <c r="B54" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C54" s="12">
         <v>5</v>
@@ -16118,19 +15671,19 @@
         <v>4</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -16167,8 +15720,8 @@
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
-      <c r="B55" s="7" t="s">
-        <v>43</v>
+      <c r="B55" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C55" s="12">
         <v>5</v>
@@ -16198,19 +15751,19 @@
         <v>5</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M55" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N55" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -16247,8 +15800,8 @@
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
-      <c r="B56" s="7" t="s">
-        <v>54</v>
+      <c r="B56" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C56" s="12">
         <v>5</v>
@@ -16278,19 +15831,19 @@
         <v>4</v>
       </c>
       <c r="L56" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -16327,8 +15880,8 @@
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
-      <c r="B57" s="7" t="s">
-        <v>21</v>
+      <c r="B57" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C57" s="12">
         <v>4</v>
@@ -16358,19 +15911,19 @@
         <v>5</v>
       </c>
       <c r="L57" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M57" s="24" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -16407,8 +15960,8 @@
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
-      <c r="B58" s="7" t="s">
-        <v>75</v>
+      <c r="B58" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C58" s="12">
         <v>5</v>
@@ -16438,19 +15991,19 @@
         <v>5</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -16487,8 +16040,8 @@
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
-      <c r="B59" s="7" t="s">
-        <v>60</v>
+      <c r="B59" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C59" s="12">
         <v>3</v>
@@ -16518,17 +16071,17 @@
         <v>5</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P59" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -16565,8 +16118,8 @@
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
-      <c r="B60" s="7" t="s">
-        <v>51</v>
+      <c r="B60" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C60" s="12">
         <v>4</v>
@@ -16596,19 +16149,19 @@
         <v>4</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M60" s="24" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="N60" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -16645,8 +16198,8 @@
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
-      <c r="B61" s="7" t="s">
-        <v>65</v>
+      <c r="B61" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -16676,19 +16229,19 @@
         <v>4</v>
       </c>
       <c r="L61" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M61" s="24" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="N61" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -16725,8 +16278,8 @@
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
-      <c r="B62" s="7" t="s">
-        <v>77</v>
+      <c r="B62" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C62" s="12">
         <v>5</v>
@@ -16756,19 +16309,19 @@
         <v>4</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M62" s="24" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="N62" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -16805,8 +16358,8 @@
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
-      <c r="B63" s="7" t="s">
-        <v>50</v>
+      <c r="B63" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C63" s="12">
         <v>5</v>
@@ -16836,19 +16389,19 @@
         <v>4</v>
       </c>
       <c r="L63" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M63" s="24" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="N63" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P63" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -16885,8 +16438,8 @@
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
-      <c r="B64" s="7" t="s">
-        <v>32</v>
+      <c r="B64" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C64" s="12">
         <v>5</v>
@@ -16916,19 +16469,19 @@
         <v>4</v>
       </c>
       <c r="L64" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M64" s="24" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="N64" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P64" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -16965,50 +16518,50 @@
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="12">
+        <v>5</v>
+      </c>
+      <c r="D65" s="12">
+        <v>4</v>
+      </c>
+      <c r="E65" s="12">
+        <v>5</v>
+      </c>
+      <c r="F65" s="12">
+        <v>4</v>
+      </c>
+      <c r="G65" s="12">
+        <v>5</v>
+      </c>
+      <c r="H65" s="12">
+        <v>5</v>
+      </c>
+      <c r="I65" s="12">
+        <v>4</v>
+      </c>
+      <c r="J65" s="12">
+        <v>4</v>
+      </c>
+      <c r="K65" s="19">
+        <v>5</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="12">
-        <v>5</v>
-      </c>
-      <c r="D65" s="12">
-        <v>4</v>
-      </c>
-      <c r="E65" s="12">
-        <v>5</v>
-      </c>
-      <c r="F65" s="12">
-        <v>4</v>
-      </c>
-      <c r="G65" s="12">
-        <v>5</v>
-      </c>
-      <c r="H65" s="12">
-        <v>5</v>
-      </c>
-      <c r="I65" s="12">
-        <v>4</v>
-      </c>
-      <c r="J65" s="12">
-        <v>4</v>
-      </c>
-      <c r="K65" s="19">
-        <v>5</v>
-      </c>
-      <c r="L65" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="M65" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="N65" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="O65" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -17045,8 +16598,8 @@
     </row>
     <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
-      <c r="B66" s="7" t="s">
-        <v>83</v>
+      <c r="B66" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C66" s="12">
         <v>5</v>
@@ -17076,19 +16629,19 @@
         <v>5</v>
       </c>
       <c r="L66" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O66" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P66" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -17125,8 +16678,8 @@
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
-      <c r="B67" s="7" t="s">
-        <v>42</v>
+      <c r="B67" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C67" s="12">
         <v>3</v>
@@ -17156,19 +16709,19 @@
         <v>4</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M67" s="24" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="N67" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O67" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P67" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -17205,8 +16758,8 @@
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
-      <c r="B68" s="7" t="s">
-        <v>46</v>
+      <c r="B68" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C68" s="12">
         <v>4</v>
@@ -17236,17 +16789,17 @@
         <v>5</v>
       </c>
       <c r="L68" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O68" s="24" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="P68" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -17283,8 +16836,8 @@
     </row>
     <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
-      <c r="B69" s="7" t="s">
-        <v>48</v>
+      <c r="B69" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C69" s="12">
         <v>4</v>
@@ -17312,19 +16865,19 @@
         <v>5</v>
       </c>
       <c r="L69" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M69" s="24" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O69" s="24" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -17361,8 +16914,8 @@
     </row>
     <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
-      <c r="B70" s="7" t="s">
-        <v>67</v>
+      <c r="B70" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C70" s="12">
         <v>5</v>
@@ -17392,19 +16945,19 @@
         <v>5</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M70" s="24" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O70" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P70" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -17441,8 +16994,8 @@
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
-      <c r="B71" s="7" t="s">
-        <v>53</v>
+      <c r="B71" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C71" s="12">
         <v>5</v>
@@ -17472,19 +17025,19 @@
         <v>5</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M71" s="24" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O71" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -17521,8 +17074,8 @@
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
-      <c r="B72" s="7" t="s">
-        <v>79</v>
+      <c r="B72" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C72" s="12">
         <v>4</v>
@@ -17552,19 +17105,19 @@
         <v>4</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M72" s="24" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="N72" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O72" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -17601,8 +17154,8 @@
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
-      <c r="B73" s="7" t="s">
-        <v>11</v>
+      <c r="B73" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C73" s="12">
         <v>5</v>
@@ -17632,19 +17185,19 @@
         <v>5</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M73" s="24" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P73" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -17681,8 +17234,8 @@
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
-      <c r="B74" s="7" t="s">
-        <v>49</v>
+      <c r="B74" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C74" s="12">
         <v>4</v>
@@ -17712,17 +17265,17 @@
         <v>5</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P74" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -17759,8 +17312,8 @@
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
-      <c r="B75" s="7" t="s">
-        <v>52</v>
+      <c r="B75" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="12">
         <v>4</v>
@@ -17790,19 +17343,19 @@
         <v>4</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M75" s="24" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P75" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -17839,8 +17392,8 @@
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
-      <c r="B76" s="7" t="s">
-        <v>41</v>
+      <c r="B76" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C76" s="12">
         <v>5</v>
@@ -17870,19 +17423,19 @@
         <v>4</v>
       </c>
       <c r="L76" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M76" s="24" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="N76" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -17919,8 +17472,8 @@
     </row>
     <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
-      <c r="B77" s="7" t="s">
-        <v>70</v>
+      <c r="B77" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C77" s="12">
         <v>4</v>
@@ -17950,19 +17503,19 @@
         <v>4</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M77" s="24" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="N77" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P77" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -17999,8 +17552,8 @@
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
-      <c r="B78" s="7" t="s">
-        <v>238</v>
+      <c r="B78" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C78" s="12">
         <v>5</v>
@@ -18030,19 +17583,19 @@
         <v>5</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P78" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -18079,8 +17632,8 @@
     </row>
     <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
-      <c r="B79" s="7" t="s">
-        <v>63</v>
+      <c r="B79" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C79" s="12">
         <v>4</v>
@@ -18147,8 +17700,8 @@
     </row>
     <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
-      <c r="B80" s="7" t="s">
-        <v>37</v>
+      <c r="B80" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C80" s="12">
         <v>4</v>
@@ -18178,19 +17731,19 @@
         <v>5</v>
       </c>
       <c r="L80" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M80" s="24" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P80" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -18227,8 +17780,8 @@
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
-      <c r="B81" s="7" t="s">
-        <v>44</v>
+      <c r="B81" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C81" s="12">
         <v>5</v>
@@ -18258,17 +17811,17 @@
         <v>4</v>
       </c>
       <c r="L81" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="M81" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="M81" s="27"/>
       <c r="N81" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -18305,8 +17858,8 @@
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
-      <c r="B82" s="7" t="s">
-        <v>90</v>
+      <c r="B82" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C82" s="12">
         <v>5</v>
@@ -18336,19 +17889,19 @@
         <v>5</v>
       </c>
       <c r="L82" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M82" s="24" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="N82" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -18385,8 +17938,8 @@
     </row>
     <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
-      <c r="B83" s="7" t="s">
-        <v>68</v>
+      <c r="B83" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C83" s="12">
         <v>5</v>
@@ -18416,19 +17969,19 @@
         <v>5</v>
       </c>
       <c r="L83" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M83" s="24" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N83" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P83" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -18465,8 +18018,8 @@
     </row>
     <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
-      <c r="B84" s="7" t="s">
-        <v>12</v>
+      <c r="B84" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C84" s="12">
         <v>4</v>
@@ -18496,17 +18049,17 @@
         <v>4</v>
       </c>
       <c r="L84" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M84" s="24"/>
       <c r="N84" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P84" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -18543,8 +18096,8 @@
     </row>
     <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
-      <c r="B85" s="7" t="s">
-        <v>13</v>
+      <c r="B85" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C85" s="12">
         <v>5</v>
@@ -18574,17 +18127,17 @@
         <v>5</v>
       </c>
       <c r="L85" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M85" s="24"/>
       <c r="N85" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="P85" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -18621,7 +18174,9 @@
     </row>
     <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="C86" s="12">
         <v>5</v>
       </c>
@@ -18689,7 +18244,9 @@
     </row>
     <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="C87" s="12">
         <v>3</v>
       </c>
@@ -18886,10 +18443,10 @@
     </row>
     <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C90" s="12">
         <v>4</v>
@@ -18919,19 +18476,19 @@
         <v>4</v>
       </c>
       <c r="L90" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M90" s="24" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="N90" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O90" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P90" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O90" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P90" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -18968,8 +18525,8 @@
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
-      <c r="B91" s="7" t="s">
-        <v>116</v>
+      <c r="B91" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C91" s="12">
         <v>5</v>
@@ -18999,19 +18556,19 @@
         <v>3</v>
       </c>
       <c r="L91" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M91" s="24" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="N91" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O91" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P91" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O91" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P91" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -19048,8 +18605,8 @@
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
-      <c r="B92" s="7" t="s">
-        <v>96</v>
+      <c r="B92" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="12">
         <v>5</v>
@@ -19079,19 +18636,19 @@
         <v>4</v>
       </c>
       <c r="L92" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M92" s="24" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="N92" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O92" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P92" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O92" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P92" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -19128,8 +18685,8 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
-      <c r="B93" s="7" t="s">
-        <v>102</v>
+      <c r="B93" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C93" s="12">
         <v>4</v>
@@ -19159,19 +18716,19 @@
         <v>4</v>
       </c>
       <c r="L93" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="N93" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O93" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P93" s="30" t="s">
-        <v>172</v>
+        <v>29</v>
+      </c>
+      <c r="O93" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P93" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -19208,8 +18765,8 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
-      <c r="B94" s="7" t="s">
-        <v>100</v>
+      <c r="B94" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C94" s="12">
         <v>4</v>
@@ -19239,17 +18796,17 @@
         <v>4</v>
       </c>
       <c r="L94" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M94" s="24"/>
       <c r="N94" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O94" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P94" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O94" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P94" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -19286,8 +18843,8 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
-      <c r="B95" s="7" t="s">
-        <v>103</v>
+      <c r="B95" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C95" s="12">
         <v>5</v>
@@ -19317,19 +18874,19 @@
         <v>4</v>
       </c>
       <c r="L95" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="N95" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O95" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P95" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O95" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P95" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -19366,8 +18923,8 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
-      <c r="B96" s="7" t="s">
-        <v>106</v>
+      <c r="B96" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C96" s="12">
         <v>3</v>
@@ -19397,19 +18954,19 @@
         <v>4</v>
       </c>
       <c r="L96" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="N96" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O96" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P96" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O96" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P96" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -19446,8 +19003,8 @@
     </row>
     <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
-      <c r="B97" s="7" t="s">
-        <v>117</v>
+      <c r="B97" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C97" s="12">
         <v>5</v>
@@ -19477,19 +19034,19 @@
         <v>5</v>
       </c>
       <c r="L97" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M97" s="24" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="N97" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P97" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O97" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -19526,8 +19083,8 @@
     </row>
     <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
-      <c r="B98" s="7" t="s">
-        <v>109</v>
+      <c r="B98" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C98" s="12">
         <v>5</v>
@@ -19557,23 +19114,23 @@
         <v>4</v>
       </c>
       <c r="L98" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M98" s="24"/>
       <c r="N98" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O98" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="P98" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="P98" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q98" s="1"/>
-      <c r="R98" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="S98" s="34"/>
+      <c r="R98" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S98" s="36"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
@@ -19606,8 +19163,8 @@
     </row>
     <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
-      <c r="B99" s="7" t="s">
-        <v>110</v>
+      <c r="B99" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C99" s="12">
         <v>5</v>
@@ -19637,23 +19194,23 @@
         <v>4</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O99" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P99" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O99" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P99" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="S99" s="24">
         <v>11</v>
@@ -19690,8 +19247,8 @@
     </row>
     <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
-      <c r="B100" s="7" t="s">
-        <v>98</v>
+      <c r="B100" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C100" s="12">
         <v>5</v>
@@ -19721,23 +19278,23 @@
         <v>4</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M100" s="24" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="N100" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O100" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P100" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O100" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="S100" s="24">
         <v>14</v>
@@ -19774,8 +19331,8 @@
     </row>
     <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
-      <c r="B101" s="7" t="s">
-        <v>114</v>
+      <c r="B101" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C101" s="12">
         <v>5</v>
@@ -19805,19 +19362,19 @@
         <v>4</v>
       </c>
       <c r="L101" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="N101" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O101" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P101" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O101" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P101" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="22"/>
@@ -19854,8 +19411,8 @@
     </row>
     <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
-      <c r="B102" s="7" t="s">
-        <v>104</v>
+      <c r="B102" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C102" s="12">
         <v>4</v>
@@ -19885,25 +19442,25 @@
         <v>4</v>
       </c>
       <c r="L102" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M102" s="24" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="N102" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O102" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P102" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O102" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P102" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q102" s="1"/>
-      <c r="R102" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="S102" s="34"/>
+      <c r="R102" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="S102" s="36"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
@@ -19936,8 +19493,8 @@
     </row>
     <row r="103" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
-      <c r="B103" s="7" t="s">
-        <v>94</v>
+      <c r="B103" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C103" s="12">
         <v>4</v>
@@ -19973,7 +19530,7 @@
       <c r="P103" s="24"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="S103" s="24">
         <v>14</v>
@@ -20010,8 +19567,8 @@
     </row>
     <row r="104" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
-      <c r="B104" s="7" t="s">
-        <v>97</v>
+      <c r="B104" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C104" s="12">
         <v>5</v>
@@ -20041,23 +19598,23 @@
         <v>4</v>
       </c>
       <c r="L104" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M104" s="24" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="N104" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O104" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P104" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O104" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q104" s="1"/>
-      <c r="R104" s="30" t="s">
-        <v>173</v>
+      <c r="R104" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="S104" s="24">
         <v>11</v>
@@ -20094,8 +19651,8 @@
     </row>
     <row r="105" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
-      <c r="B105" s="7" t="s">
-        <v>108</v>
+      <c r="B105" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C105" s="12">
         <v>5</v>
@@ -20125,19 +19682,19 @@
         <v>5</v>
       </c>
       <c r="L105" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M105" s="24" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="N105" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O105" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P105" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O105" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="22"/>
@@ -20174,8 +19731,8 @@
     </row>
     <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
-      <c r="B106" s="7" t="s">
-        <v>99</v>
+      <c r="B106" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C106" s="12">
         <v>5</v>
@@ -20205,25 +19762,25 @@
         <v>4</v>
       </c>
       <c r="L106" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M106" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N106" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O106" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P106" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O106" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P106" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q106" s="1"/>
-      <c r="R106" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="S106" s="37"/>
+      <c r="R106" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S106" s="34"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
@@ -20256,8 +19813,8 @@
     </row>
     <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
-      <c r="B107" s="7" t="s">
-        <v>93</v>
+      <c r="B107" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C107" s="12">
         <v>5</v>
@@ -20287,23 +19844,23 @@
         <v>4</v>
       </c>
       <c r="L107" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M107" s="24" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="N107" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O107" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P107" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O107" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q107" s="1"/>
-      <c r="R107" s="30" t="s">
-        <v>172</v>
+      <c r="R107" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="S107" s="24">
         <v>6</v>
@@ -20340,8 +19897,8 @@
     </row>
     <row r="108" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
-      <c r="B108" s="7" t="s">
-        <v>92</v>
+      <c r="B108" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C108" s="12">
         <v>5</v>
@@ -20371,23 +19928,23 @@
         <v>5</v>
       </c>
       <c r="L108" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M108" s="24" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="N108" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O108" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P108" s="30" t="s">
-        <v>172</v>
+        <v>29</v>
+      </c>
+      <c r="O108" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q108" s="1"/>
-      <c r="R108" s="30" t="s">
-        <v>173</v>
+      <c r="R108" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="S108" s="24">
         <v>19</v>
@@ -20424,8 +19981,8 @@
     </row>
     <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
-      <c r="B109" s="7" t="s">
-        <v>112</v>
+      <c r="B109" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C109" s="12">
         <v>5</v>
@@ -20453,17 +20010,17 @@
         <v>5</v>
       </c>
       <c r="L109" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M109" s="24"/>
       <c r="N109" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O109" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="P109" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="P109" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="22"/>
@@ -20500,7 +20057,7 @@
     </row>
     <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C110" s="12">
@@ -20531,25 +20088,25 @@
         <v>4</v>
       </c>
       <c r="L110" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M110" s="24" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="N110" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O110" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P110" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O110" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P110" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q110" s="1"/>
-      <c r="R110" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="S110" s="34"/>
+      <c r="R110" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S110" s="36"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
@@ -20582,8 +20139,8 @@
     </row>
     <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
-      <c r="B111" s="7" t="s">
-        <v>113</v>
+      <c r="B111" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C111" s="12">
         <v>5</v>
@@ -20613,23 +20170,23 @@
         <v>5</v>
       </c>
       <c r="L111" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M111" s="24" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="N111" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O111" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P111" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O111" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P111" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="S111" s="24">
         <v>7</v>
@@ -20666,8 +20223,8 @@
     </row>
     <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
-      <c r="B112" s="7" t="s">
-        <v>95</v>
+      <c r="B112" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C112" s="12">
         <v>5</v>
@@ -20703,7 +20260,7 @@
       <c r="P112" s="24"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="S112" s="24">
         <v>18</v>
@@ -20740,8 +20297,8 @@
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
-      <c r="B113" s="7" t="s">
-        <v>115</v>
+      <c r="B113" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C113" s="12">
         <v>5</v>
@@ -20771,19 +20328,19 @@
         <v>5</v>
       </c>
       <c r="L113" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M113" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N113" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O113" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P113" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O113" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -20820,8 +20377,8 @@
     </row>
     <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
-      <c r="B114" s="7" t="s">
-        <v>111</v>
+      <c r="B114" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C114" s="12">
         <v>5</v>
@@ -20851,19 +20408,19 @@
         <v>5</v>
       </c>
       <c r="L114" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M114" s="24" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="N114" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O114" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P114" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O114" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -20900,8 +20457,8 @@
     </row>
     <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
-      <c r="B115" s="7" t="s">
-        <v>107</v>
+      <c r="B115" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C115" s="12">
         <v>3</v>
@@ -20931,19 +20488,19 @@
         <v>3</v>
       </c>
       <c r="L115" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M115" s="24" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N115" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O115" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P115" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O115" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P115" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -20980,7 +20537,9 @@
     </row>
     <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="C116" s="12">
         <v>5</v>
       </c>
@@ -21009,19 +20568,19 @@
         <v>5</v>
       </c>
       <c r="L116" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M116" s="24" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="N116" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O116" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P116" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O116" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P116" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -21058,7 +20617,9 @@
     </row>
     <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
-      <c r="B117" s="7"/>
+      <c r="B117" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="C117" s="12">
         <v>4</v>
       </c>
@@ -21254,9 +20815,9 @@
       <c r="AV119" s="1"/>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="7" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C120" s="12">
         <v>5</v>
@@ -21286,19 +20847,19 @@
         <v>5</v>
       </c>
       <c r="L120" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M120" s="24" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O120" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P120" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O120" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -21335,10 +20896,10 @@
     </row>
     <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>128</v>
+        <v>13</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C121" s="12">
         <v>5</v>
@@ -21368,19 +20929,19 @@
         <v>5</v>
       </c>
       <c r="L121" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M121" s="24" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="N121" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O121" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P121" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O121" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P121" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -21417,8 +20978,8 @@
     </row>
     <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
-      <c r="B122" s="7" t="s">
-        <v>141</v>
+      <c r="B122" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C122" s="12">
         <v>5</v>
@@ -21448,19 +21009,19 @@
         <v>5</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M122" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N122" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O122" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P122" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O122" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P122" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -21497,8 +21058,8 @@
     </row>
     <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
-      <c r="B123" s="7" t="s">
-        <v>142</v>
+      <c r="B123" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C123" s="12">
         <v>5</v>
@@ -21528,19 +21089,19 @@
         <v>5</v>
       </c>
       <c r="L123" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M123" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N123" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O123" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P123" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O123" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P123" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -21577,8 +21138,8 @@
     </row>
     <row r="124" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
-      <c r="B124" s="7" t="s">
-        <v>137</v>
+      <c r="B124" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C124" s="12">
         <v>5</v>
@@ -21608,25 +21169,25 @@
         <v>5</v>
       </c>
       <c r="L124" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M124" s="24" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="N124" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O124" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P124" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O124" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P124" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q124" s="1"/>
-      <c r="R124" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="S124" s="34"/>
+      <c r="R124" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S124" s="36"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
@@ -21659,8 +21220,8 @@
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
-      <c r="B125" s="7" t="s">
-        <v>133</v>
+      <c r="B125" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C125" s="12">
         <v>5</v>
@@ -21690,23 +21251,23 @@
         <v>5</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M125" s="24" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="N125" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O125" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P125" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O125" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P125" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="S125" s="24">
         <v>22</v>
@@ -21743,8 +21304,8 @@
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
-      <c r="B126" s="7" t="s">
-        <v>202</v>
+      <c r="B126" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C126" s="12">
         <v>5</v>
@@ -21774,23 +21335,23 @@
         <v>5</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M126" s="24" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="N126" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O126" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P126" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O126" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="S126" s="24">
         <v>14</v>
@@ -21827,8 +21388,8 @@
     </row>
     <row r="127" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
-      <c r="B127" s="7" t="s">
-        <v>122</v>
+      <c r="B127" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C127" s="12">
         <v>5</v>
@@ -21858,19 +21419,19 @@
         <v>5</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M127" s="24" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N127" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O127" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P127" s="30" t="s">
-        <v>172</v>
+        <v>29</v>
+      </c>
+      <c r="O127" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P127" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="22"/>
@@ -21907,8 +21468,8 @@
     </row>
     <row r="128" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
-      <c r="B128" s="7" t="s">
-        <v>121</v>
+      <c r="B128" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C128" s="12">
         <v>5</v>
@@ -21938,23 +21499,23 @@
         <v>5</v>
       </c>
       <c r="L128" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M128" s="24"/>
       <c r="N128" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O128" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P128" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O128" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P128" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q128" s="1"/>
-      <c r="R128" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="S128" s="34"/>
+      <c r="R128" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="S128" s="36"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
@@ -21987,8 +21548,8 @@
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
-      <c r="B129" s="7" t="s">
-        <v>131</v>
+      <c r="B129" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C129" s="12">
         <v>5</v>
@@ -22018,21 +21579,21 @@
         <v>5</v>
       </c>
       <c r="L129" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M129" s="24"/>
       <c r="N129" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O129" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P129" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O129" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P129" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="S129" s="24">
         <v>31</v>
@@ -22069,8 +21630,8 @@
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
-      <c r="B130" s="7" t="s">
-        <v>132</v>
+      <c r="B130" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C130" s="12">
         <v>5</v>
@@ -22100,23 +21661,23 @@
         <v>5</v>
       </c>
       <c r="L130" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M130" s="24" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O130" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P130" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O130" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q130" s="1"/>
-      <c r="R130" s="30" t="s">
-        <v>173</v>
+      <c r="R130" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="S130" s="24">
         <v>5</v>
@@ -22153,8 +21714,8 @@
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
-      <c r="B131" s="7" t="s">
-        <v>138</v>
+      <c r="B131" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C131" s="12">
         <v>5</v>
@@ -22184,19 +21745,19 @@
         <v>5</v>
       </c>
       <c r="L131" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M131" s="24" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="N131" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O131" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P131" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O131" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P131" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q131" s="1"/>
       <c r="R131" s="22"/>
@@ -22233,8 +21794,8 @@
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
-      <c r="B132" s="7" t="s">
-        <v>120</v>
+      <c r="B132" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C132" s="12">
         <v>5</v>
@@ -22264,23 +21825,23 @@
         <v>5</v>
       </c>
       <c r="L132" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M132" s="24"/>
       <c r="N132" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O132" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P132" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O132" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P132" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q132" s="1"/>
-      <c r="R132" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="S132" s="37"/>
+      <c r="R132" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S132" s="34"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
@@ -22313,8 +21874,8 @@
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
-      <c r="B133" s="7" t="s">
-        <v>125</v>
+      <c r="B133" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C133" s="12">
         <v>5</v>
@@ -22344,23 +21905,23 @@
         <v>5</v>
       </c>
       <c r="L133" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M133" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N133" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O133" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P133" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O133" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P133" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q133" s="1"/>
-      <c r="R133" s="30" t="s">
-        <v>172</v>
+      <c r="R133" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="S133" s="24">
         <v>24</v>
@@ -22397,8 +21958,8 @@
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
-      <c r="B134" s="7" t="s">
-        <v>150</v>
+      <c r="B134" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C134" s="12">
         <v>5</v>
@@ -22428,23 +21989,23 @@
         <v>5</v>
       </c>
       <c r="L134" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M134" s="24" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="N134" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O134" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P134" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O134" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P134" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q134" s="1"/>
-      <c r="R134" s="30" t="s">
-        <v>173</v>
+      <c r="R134" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="S134" s="24">
         <v>12</v>
@@ -22481,8 +22042,8 @@
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
-      <c r="B135" s="7" t="s">
-        <v>129</v>
+      <c r="B135" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C135" s="12">
         <v>5</v>
@@ -22512,19 +22073,19 @@
         <v>5</v>
       </c>
       <c r="L135" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M135" s="24" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="N135" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O135" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P135" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O135" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P135" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="22"/>
@@ -22561,8 +22122,8 @@
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
-      <c r="B136" s="7" t="s">
-        <v>124</v>
+      <c r="B136" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C136" s="12">
         <v>5</v>
@@ -22592,25 +22153,25 @@
         <v>5</v>
       </c>
       <c r="L136" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M136" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N136" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O136" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P136" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O136" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P136" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q136" s="1"/>
-      <c r="R136" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="S136" s="34"/>
+      <c r="R136" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S136" s="36"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
@@ -22643,8 +22204,8 @@
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
-      <c r="B137" s="7" t="s">
-        <v>126</v>
+      <c r="B137" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C137" s="12">
         <v>4</v>
@@ -22674,21 +22235,21 @@
         <v>5</v>
       </c>
       <c r="L137" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M137" s="24"/>
       <c r="N137" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O137" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="P137" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="P137" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="S137" s="24">
         <v>28</v>
@@ -22725,8 +22286,8 @@
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
-      <c r="B138" s="7" t="s">
-        <v>130</v>
+      <c r="B138" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C138" s="12">
         <v>5</v>
@@ -22756,23 +22317,23 @@
         <v>5</v>
       </c>
       <c r="L138" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M138" s="24" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="N138" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O138" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P138" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O138" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P138" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="24" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="S138" s="24">
         <v>8</v>
@@ -22809,8 +22370,8 @@
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
-      <c r="B139" s="7" t="s">
-        <v>148</v>
+      <c r="B139" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C139" s="12">
         <v>5</v>
@@ -22840,19 +22401,19 @@
         <v>5</v>
       </c>
       <c r="L139" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M139" s="24" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="N139" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O139" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P139" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O139" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -22889,8 +22450,8 @@
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
-      <c r="B140" s="7" t="s">
-        <v>147</v>
+      <c r="B140" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C140" s="12">
         <v>5</v>
@@ -22920,19 +22481,19 @@
         <v>5</v>
       </c>
       <c r="L140" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M140" s="24" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O140" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P140" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O140" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P140" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -22969,8 +22530,8 @@
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
-      <c r="B141" s="7" t="s">
-        <v>127</v>
+      <c r="B141" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C141" s="12">
         <v>5</v>
@@ -23000,19 +22561,19 @@
         <v>5</v>
       </c>
       <c r="L141" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M141" s="24" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N141" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O141" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P141" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O141" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P141" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -23049,8 +22610,8 @@
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
-      <c r="B142" s="7" t="s">
-        <v>151</v>
+      <c r="B142" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C142" s="12">
         <v>4</v>
@@ -23080,19 +22641,19 @@
         <v>5</v>
       </c>
       <c r="L142" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M142" s="24" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="N142" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O142" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P142" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O142" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P142" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -23129,8 +22690,8 @@
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
-      <c r="B143" s="7" t="s">
-        <v>145</v>
+      <c r="B143" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C143" s="12">
         <v>4</v>
@@ -23160,19 +22721,19 @@
         <v>4</v>
       </c>
       <c r="L143" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O143" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="P143" s="24" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -23209,8 +22770,8 @@
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
-      <c r="B144" s="7" t="s">
-        <v>149</v>
+      <c r="B144" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C144" s="12">
         <v>4</v>
@@ -23240,19 +22801,19 @@
         <v>5</v>
       </c>
       <c r="L144" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M144" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O144" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P144" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O144" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P144" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
@@ -23289,8 +22850,8 @@
     </row>
     <row r="145" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A145" s="39"/>
-      <c r="B145" s="7" t="s">
-        <v>136</v>
+      <c r="B145" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C145" s="12">
         <v>5</v>
@@ -23320,19 +22881,19 @@
         <v>5</v>
       </c>
       <c r="L145" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M145" s="24" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="N145" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O145" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P145" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O145" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
@@ -23369,8 +22930,8 @@
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
-      <c r="B146" s="7" t="s">
-        <v>123</v>
+      <c r="B146" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C146" s="12">
         <v>5</v>
@@ -23400,19 +22961,19 @@
         <v>5</v>
       </c>
       <c r="L146" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M146" s="24" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="N146" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O146" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P146" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O146" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
@@ -23449,8 +23010,8 @@
     </row>
     <row r="147" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
-      <c r="B147" s="7" t="s">
-        <v>153</v>
+      <c r="B147" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C147" s="12">
         <v>5</v>
@@ -23480,19 +23041,19 @@
         <v>5</v>
       </c>
       <c r="L147" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M147" s="24" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N147" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O147" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P147" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O147" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P147" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -23529,8 +23090,8 @@
     </row>
     <row r="148" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
-      <c r="B148" s="7" t="s">
-        <v>144</v>
+      <c r="B148" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C148" s="12">
         <v>4</v>
@@ -23558,19 +23119,19 @@
         <v>5</v>
       </c>
       <c r="L148" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M148" s="24" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="N148" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O148" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P148" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O148" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P148" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -23607,8 +23168,8 @@
     </row>
     <row r="149" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
-      <c r="B149" s="7" t="s">
-        <v>134</v>
+      <c r="B149" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C149" s="12">
         <v>5</v>
@@ -23638,19 +23199,19 @@
         <v>5</v>
       </c>
       <c r="L149" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M149" s="24" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="N149" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O149" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P149" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O149" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P149" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -23687,8 +23248,8 @@
     </row>
     <row r="150" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
-      <c r="B150" s="7" t="s">
-        <v>152</v>
+      <c r="B150" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C150" s="12">
         <v>4</v>
@@ -23718,19 +23279,19 @@
         <v>4</v>
       </c>
       <c r="L150" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M150" s="24" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="N150" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O150" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P150" s="30" t="s">
-        <v>172</v>
+        <v>29</v>
+      </c>
+      <c r="O150" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P150" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -23767,8 +23328,8 @@
     </row>
     <row r="151" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
-      <c r="B151" s="7" t="s">
-        <v>140</v>
+      <c r="B151" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C151" s="12">
         <v>4</v>
@@ -23798,19 +23359,19 @@
         <v>5</v>
       </c>
       <c r="L151" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M151" s="24" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="N151" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O151" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P151" s="30" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="O151" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P151" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -23847,8 +23408,8 @@
     </row>
     <row r="152" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
-      <c r="B152" s="7" t="s">
-        <v>143</v>
+      <c r="B152" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C152" s="12">
         <v>5</v>
@@ -23878,19 +23439,19 @@
         <v>5</v>
       </c>
       <c r="L152" s="24" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M152" s="24" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="N152" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O152" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P152" s="30" t="s">
-        <v>172</v>
+        <v>29</v>
+      </c>
+      <c r="O152" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P152" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -23927,8 +23488,8 @@
     </row>
     <row r="153" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
-      <c r="B153" s="7" t="s">
-        <v>119</v>
+      <c r="B153" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C153" s="12">
         <v>4</v>
@@ -23997,8 +23558,8 @@
     </row>
     <row r="154" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
-      <c r="B154" s="7" t="s">
-        <v>135</v>
+      <c r="B154" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C154" s="12">
         <v>5</v>
@@ -24028,19 +23589,19 @@
         <v>5</v>
       </c>
       <c r="L154" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M154" s="24" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="N154" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O154" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P154" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O154" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P154" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -24077,8 +23638,8 @@
     </row>
     <row r="155" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
-      <c r="B155" s="7" t="s">
-        <v>118</v>
+      <c r="B155" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C155" s="12">
         <v>4</v>
@@ -24108,19 +23669,19 @@
         <v>3</v>
       </c>
       <c r="L155" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M155" s="24" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="N155" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O155" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P155" s="30" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="O155" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P155" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -24157,8 +23718,8 @@
     </row>
     <row r="156" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
-      <c r="B156" s="7" t="s">
-        <v>146</v>
+      <c r="B156" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C156" s="12">
         <v>4</v>
@@ -24188,19 +23749,19 @@
         <v>5</v>
       </c>
       <c r="L156" s="24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M156" s="24" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="N156" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O156" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P156" s="30" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="O156" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P156" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -24237,7 +23798,9 @@
     </row>
     <row r="157" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A157" s="39"/>
-      <c r="B157" s="11"/>
+      <c r="B157" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="C157" s="14">
         <v>5</v>
       </c>
@@ -24350,28 +23913,28 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="5" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="R158" s="5" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="S158" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="T158" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="U158" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="V158" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="W158" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="X158" s="27" t="s">
-        <v>247</v>
+        <v>95</v>
+      </c>
+      <c r="T158" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="U158" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="V158" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="W158" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="X158" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
@@ -24427,23 +23990,23 @@
         <f>SUM(S34,S103,S129)</f>
         <v>114</v>
       </c>
-      <c r="T159" s="26">
+      <c r="T159" s="25">
         <f>SUM(S130,S104,S35)</f>
         <v>29</v>
       </c>
-      <c r="U159" s="26">
+      <c r="U159" s="25">
         <f>SUM(S133,S107,S38)</f>
         <v>78</v>
       </c>
-      <c r="V159" s="26">
+      <c r="V159" s="25">
         <f>SUM(S134,S108,S39)</f>
         <v>65</v>
       </c>
-      <c r="W159" s="26">
+      <c r="W159" s="25">
         <f>SUM(S137,S111,S42)</f>
         <v>63</v>
       </c>
-      <c r="X159" s="26">
+      <c r="X159" s="25">
         <f>SUM(S138,S112,S43)</f>
         <v>80</v>
       </c>
@@ -24532,7 +24095,7 @@
     </row>
     <row r="161" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="B161" s="7">
         <f>SUM(B88,B118,B158)</f>
@@ -24814,1653 +24377,1653 @@
     </row>
     <row r="166" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="35"/>
-      <c r="L166" s="35"/>
-      <c r="M166" s="35"/>
-      <c r="N166" s="35"/>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="35"/>
-      <c r="S166" s="35"/>
-      <c r="T166" s="35"/>
-      <c r="U166" s="35"/>
-      <c r="V166" s="35"/>
-      <c r="W166" s="35"/>
-      <c r="X166" s="35"/>
-      <c r="Y166" s="35"/>
-      <c r="Z166" s="35"/>
-      <c r="AA166" s="35"/>
-      <c r="AB166" s="35"/>
-      <c r="AC166" s="35"/>
-      <c r="AD166" s="35"/>
-      <c r="AE166" s="35"/>
-      <c r="AF166" s="35"/>
-      <c r="AG166" s="35"/>
-      <c r="AH166" s="35"/>
-      <c r="AI166" s="35"/>
-      <c r="AJ166" s="35"/>
-      <c r="AK166" s="35"/>
-      <c r="AL166" s="35"/>
-      <c r="AM166" s="35"/>
-      <c r="AN166" s="35"/>
-      <c r="AO166" s="35"/>
-      <c r="AP166" s="35"/>
-      <c r="AQ166" s="35"/>
-      <c r="AR166" s="35"/>
-      <c r="AS166" s="35"/>
-      <c r="AT166" s="35"/>
-      <c r="AU166" s="35"/>
-      <c r="AV166" s="35"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="37"/>
+      <c r="K166" s="37"/>
+      <c r="L166" s="37"/>
+      <c r="M166" s="37"/>
+      <c r="N166" s="37"/>
+      <c r="O166" s="37"/>
+      <c r="P166" s="37"/>
+      <c r="Q166" s="37"/>
+      <c r="R166" s="37"/>
+      <c r="S166" s="37"/>
+      <c r="T166" s="37"/>
+      <c r="U166" s="37"/>
+      <c r="V166" s="37"/>
+      <c r="W166" s="37"/>
+      <c r="X166" s="37"/>
+      <c r="Y166" s="37"/>
+      <c r="Z166" s="37"/>
+      <c r="AA166" s="37"/>
+      <c r="AB166" s="37"/>
+      <c r="AC166" s="37"/>
+      <c r="AD166" s="37"/>
+      <c r="AE166" s="37"/>
+      <c r="AF166" s="37"/>
+      <c r="AG166" s="37"/>
+      <c r="AH166" s="37"/>
+      <c r="AI166" s="37"/>
+      <c r="AJ166" s="37"/>
+      <c r="AK166" s="37"/>
+      <c r="AL166" s="37"/>
+      <c r="AM166" s="37"/>
+      <c r="AN166" s="37"/>
+      <c r="AO166" s="37"/>
+      <c r="AP166" s="37"/>
+      <c r="AQ166" s="37"/>
+      <c r="AR166" s="37"/>
+      <c r="AS166" s="37"/>
+      <c r="AT166" s="37"/>
+      <c r="AU166" s="37"/>
+      <c r="AV166" s="37"/>
     </row>
     <row r="167" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="35"/>
-      <c r="L167" s="35"/>
-      <c r="M167" s="35"/>
-      <c r="N167" s="35"/>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="35"/>
-      <c r="S167" s="35"/>
-      <c r="T167" s="35"/>
-      <c r="U167" s="35"/>
-      <c r="V167" s="35"/>
-      <c r="W167" s="35"/>
-      <c r="X167" s="35"/>
-      <c r="Y167" s="35"/>
-      <c r="Z167" s="35"/>
-      <c r="AA167" s="35"/>
-      <c r="AB167" s="35"/>
-      <c r="AC167" s="35"/>
-      <c r="AD167" s="35"/>
-      <c r="AE167" s="35"/>
-      <c r="AF167" s="35"/>
-      <c r="AG167" s="35"/>
-      <c r="AH167" s="35"/>
-      <c r="AI167" s="35"/>
-      <c r="AJ167" s="35"/>
-      <c r="AK167" s="35"/>
-      <c r="AL167" s="35"/>
-      <c r="AM167" s="35"/>
-      <c r="AN167" s="35"/>
-      <c r="AO167" s="35"/>
-      <c r="AP167" s="35"/>
-      <c r="AQ167" s="35"/>
-      <c r="AR167" s="35"/>
-      <c r="AS167" s="35"/>
-      <c r="AT167" s="35"/>
-      <c r="AU167" s="35"/>
-      <c r="AV167" s="35"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="37"/>
+      <c r="L167" s="37"/>
+      <c r="M167" s="37"/>
+      <c r="N167" s="37"/>
+      <c r="O167" s="37"/>
+      <c r="P167" s="37"/>
+      <c r="Q167" s="37"/>
+      <c r="R167" s="37"/>
+      <c r="S167" s="37"/>
+      <c r="T167" s="37"/>
+      <c r="U167" s="37"/>
+      <c r="V167" s="37"/>
+      <c r="W167" s="37"/>
+      <c r="X167" s="37"/>
+      <c r="Y167" s="37"/>
+      <c r="Z167" s="37"/>
+      <c r="AA167" s="37"/>
+      <c r="AB167" s="37"/>
+      <c r="AC167" s="37"/>
+      <c r="AD167" s="37"/>
+      <c r="AE167" s="37"/>
+      <c r="AF167" s="37"/>
+      <c r="AG167" s="37"/>
+      <c r="AH167" s="37"/>
+      <c r="AI167" s="37"/>
+      <c r="AJ167" s="37"/>
+      <c r="AK167" s="37"/>
+      <c r="AL167" s="37"/>
+      <c r="AM167" s="37"/>
+      <c r="AN167" s="37"/>
+      <c r="AO167" s="37"/>
+      <c r="AP167" s="37"/>
+      <c r="AQ167" s="37"/>
+      <c r="AR167" s="37"/>
+      <c r="AS167" s="37"/>
+      <c r="AT167" s="37"/>
+      <c r="AU167" s="37"/>
+      <c r="AV167" s="37"/>
     </row>
     <row r="168" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="35"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="35"/>
-      <c r="L168" s="35"/>
-      <c r="M168" s="35"/>
-      <c r="N168" s="35"/>
-      <c r="O168" s="35"/>
-      <c r="P168" s="35"/>
-      <c r="Q168" s="35"/>
-      <c r="R168" s="35"/>
-      <c r="S168" s="35"/>
-      <c r="T168" s="35"/>
-      <c r="U168" s="35"/>
-      <c r="V168" s="35"/>
-      <c r="W168" s="35"/>
-      <c r="X168" s="35"/>
-      <c r="Y168" s="35"/>
-      <c r="Z168" s="35"/>
-      <c r="AA168" s="35"/>
-      <c r="AB168" s="35"/>
-      <c r="AC168" s="35"/>
-      <c r="AD168" s="35"/>
-      <c r="AE168" s="35"/>
-      <c r="AF168" s="35"/>
-      <c r="AG168" s="35"/>
-      <c r="AH168" s="35"/>
-      <c r="AI168" s="35"/>
-      <c r="AJ168" s="35"/>
-      <c r="AK168" s="35"/>
-      <c r="AL168" s="35"/>
-      <c r="AM168" s="35"/>
-      <c r="AN168" s="35"/>
-      <c r="AO168" s="35"/>
-      <c r="AP168" s="35"/>
-      <c r="AQ168" s="35"/>
-      <c r="AR168" s="35"/>
-      <c r="AS168" s="35"/>
-      <c r="AT168" s="35"/>
-      <c r="AU168" s="35"/>
-      <c r="AV168" s="35"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
+      <c r="K168" s="37"/>
+      <c r="L168" s="37"/>
+      <c r="M168" s="37"/>
+      <c r="N168" s="37"/>
+      <c r="O168" s="37"/>
+      <c r="P168" s="37"/>
+      <c r="Q168" s="37"/>
+      <c r="R168" s="37"/>
+      <c r="S168" s="37"/>
+      <c r="T168" s="37"/>
+      <c r="U168" s="37"/>
+      <c r="V168" s="37"/>
+      <c r="W168" s="37"/>
+      <c r="X168" s="37"/>
+      <c r="Y168" s="37"/>
+      <c r="Z168" s="37"/>
+      <c r="AA168" s="37"/>
+      <c r="AB168" s="37"/>
+      <c r="AC168" s="37"/>
+      <c r="AD168" s="37"/>
+      <c r="AE168" s="37"/>
+      <c r="AF168" s="37"/>
+      <c r="AG168" s="37"/>
+      <c r="AH168" s="37"/>
+      <c r="AI168" s="37"/>
+      <c r="AJ168" s="37"/>
+      <c r="AK168" s="37"/>
+      <c r="AL168" s="37"/>
+      <c r="AM168" s="37"/>
+      <c r="AN168" s="37"/>
+      <c r="AO168" s="37"/>
+      <c r="AP168" s="37"/>
+      <c r="AQ168" s="37"/>
+      <c r="AR168" s="37"/>
+      <c r="AS168" s="37"/>
+      <c r="AT168" s="37"/>
+      <c r="AU168" s="37"/>
+      <c r="AV168" s="37"/>
     </row>
     <row r="169" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="35"/>
-      <c r="L169" s="35"/>
-      <c r="M169" s="35"/>
-      <c r="N169" s="35"/>
-      <c r="O169" s="35"/>
-      <c r="P169" s="35"/>
-      <c r="Q169" s="35"/>
-      <c r="R169" s="35"/>
-      <c r="S169" s="35"/>
-      <c r="T169" s="35"/>
-      <c r="U169" s="35"/>
-      <c r="V169" s="35"/>
-      <c r="W169" s="35"/>
-      <c r="X169" s="35"/>
-      <c r="Y169" s="35"/>
-      <c r="Z169" s="35"/>
-      <c r="AA169" s="35"/>
-      <c r="AB169" s="35"/>
-      <c r="AC169" s="35"/>
-      <c r="AD169" s="35"/>
-      <c r="AE169" s="35"/>
-      <c r="AF169" s="35"/>
-      <c r="AG169" s="35"/>
-      <c r="AH169" s="35"/>
-      <c r="AI169" s="35"/>
-      <c r="AJ169" s="35"/>
-      <c r="AK169" s="35"/>
-      <c r="AL169" s="35"/>
-      <c r="AM169" s="35"/>
-      <c r="AN169" s="35"/>
-      <c r="AO169" s="35"/>
-      <c r="AP169" s="35"/>
-      <c r="AQ169" s="35"/>
-      <c r="AR169" s="35"/>
-      <c r="AS169" s="35"/>
-      <c r="AT169" s="35"/>
-      <c r="AU169" s="35"/>
-      <c r="AV169" s="35"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="37"/>
+      <c r="M169" s="37"/>
+      <c r="N169" s="37"/>
+      <c r="O169" s="37"/>
+      <c r="P169" s="37"/>
+      <c r="Q169" s="37"/>
+      <c r="R169" s="37"/>
+      <c r="S169" s="37"/>
+      <c r="T169" s="37"/>
+      <c r="U169" s="37"/>
+      <c r="V169" s="37"/>
+      <c r="W169" s="37"/>
+      <c r="X169" s="37"/>
+      <c r="Y169" s="37"/>
+      <c r="Z169" s="37"/>
+      <c r="AA169" s="37"/>
+      <c r="AB169" s="37"/>
+      <c r="AC169" s="37"/>
+      <c r="AD169" s="37"/>
+      <c r="AE169" s="37"/>
+      <c r="AF169" s="37"/>
+      <c r="AG169" s="37"/>
+      <c r="AH169" s="37"/>
+      <c r="AI169" s="37"/>
+      <c r="AJ169" s="37"/>
+      <c r="AK169" s="37"/>
+      <c r="AL169" s="37"/>
+      <c r="AM169" s="37"/>
+      <c r="AN169" s="37"/>
+      <c r="AO169" s="37"/>
+      <c r="AP169" s="37"/>
+      <c r="AQ169" s="37"/>
+      <c r="AR169" s="37"/>
+      <c r="AS169" s="37"/>
+      <c r="AT169" s="37"/>
+      <c r="AU169" s="37"/>
+      <c r="AV169" s="37"/>
     </row>
     <row r="170" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
-      <c r="K170" s="35"/>
-      <c r="L170" s="35"/>
-      <c r="M170" s="35"/>
-      <c r="N170" s="35"/>
-      <c r="O170" s="35"/>
-      <c r="P170" s="35"/>
-      <c r="Q170" s="35"/>
-      <c r="R170" s="35"/>
-      <c r="S170" s="35"/>
-      <c r="T170" s="35"/>
-      <c r="U170" s="35"/>
-      <c r="V170" s="35"/>
-      <c r="W170" s="35"/>
-      <c r="X170" s="35"/>
-      <c r="Y170" s="35"/>
-      <c r="Z170" s="35"/>
-      <c r="AA170" s="35"/>
-      <c r="AB170" s="35"/>
-      <c r="AC170" s="35"/>
-      <c r="AD170" s="35"/>
-      <c r="AE170" s="35"/>
-      <c r="AF170" s="35"/>
-      <c r="AG170" s="35"/>
-      <c r="AH170" s="35"/>
-      <c r="AI170" s="35"/>
-      <c r="AJ170" s="35"/>
-      <c r="AK170" s="35"/>
-      <c r="AL170" s="35"/>
-      <c r="AM170" s="35"/>
-      <c r="AN170" s="35"/>
-      <c r="AO170" s="35"/>
-      <c r="AP170" s="35"/>
-      <c r="AQ170" s="35"/>
-      <c r="AR170" s="35"/>
-      <c r="AS170" s="35"/>
-      <c r="AT170" s="35"/>
-      <c r="AU170" s="35"/>
-      <c r="AV170" s="35"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
+      <c r="K170" s="37"/>
+      <c r="L170" s="37"/>
+      <c r="M170" s="37"/>
+      <c r="N170" s="37"/>
+      <c r="O170" s="37"/>
+      <c r="P170" s="37"/>
+      <c r="Q170" s="37"/>
+      <c r="R170" s="37"/>
+      <c r="S170" s="37"/>
+      <c r="T170" s="37"/>
+      <c r="U170" s="37"/>
+      <c r="V170" s="37"/>
+      <c r="W170" s="37"/>
+      <c r="X170" s="37"/>
+      <c r="Y170" s="37"/>
+      <c r="Z170" s="37"/>
+      <c r="AA170" s="37"/>
+      <c r="AB170" s="37"/>
+      <c r="AC170" s="37"/>
+      <c r="AD170" s="37"/>
+      <c r="AE170" s="37"/>
+      <c r="AF170" s="37"/>
+      <c r="AG170" s="37"/>
+      <c r="AH170" s="37"/>
+      <c r="AI170" s="37"/>
+      <c r="AJ170" s="37"/>
+      <c r="AK170" s="37"/>
+      <c r="AL170" s="37"/>
+      <c r="AM170" s="37"/>
+      <c r="AN170" s="37"/>
+      <c r="AO170" s="37"/>
+      <c r="AP170" s="37"/>
+      <c r="AQ170" s="37"/>
+      <c r="AR170" s="37"/>
+      <c r="AS170" s="37"/>
+      <c r="AT170" s="37"/>
+      <c r="AU170" s="37"/>
+      <c r="AV170" s="37"/>
     </row>
     <row r="171" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35"/>
-      <c r="L171" s="35"/>
-      <c r="M171" s="35"/>
-      <c r="N171" s="35"/>
-      <c r="O171" s="35"/>
-      <c r="P171" s="35"/>
-      <c r="Q171" s="35"/>
-      <c r="R171" s="35"/>
-      <c r="S171" s="35"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="35"/>
-      <c r="V171" s="35"/>
-      <c r="W171" s="35"/>
-      <c r="X171" s="35"/>
-      <c r="Y171" s="35"/>
-      <c r="Z171" s="35"/>
-      <c r="AA171" s="35"/>
-      <c r="AB171" s="35"/>
-      <c r="AC171" s="35"/>
-      <c r="AD171" s="35"/>
-      <c r="AE171" s="35"/>
-      <c r="AF171" s="35"/>
-      <c r="AG171" s="35"/>
-      <c r="AH171" s="35"/>
-      <c r="AI171" s="35"/>
-      <c r="AJ171" s="35"/>
-      <c r="AK171" s="35"/>
-      <c r="AL171" s="35"/>
-      <c r="AM171" s="35"/>
-      <c r="AN171" s="35"/>
-      <c r="AO171" s="35"/>
-      <c r="AP171" s="35"/>
-      <c r="AQ171" s="35"/>
-      <c r="AR171" s="35"/>
-      <c r="AS171" s="35"/>
-      <c r="AT171" s="35"/>
-      <c r="AU171" s="35"/>
-      <c r="AV171" s="35"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
+      <c r="K171" s="37"/>
+      <c r="L171" s="37"/>
+      <c r="M171" s="37"/>
+      <c r="N171" s="37"/>
+      <c r="O171" s="37"/>
+      <c r="P171" s="37"/>
+      <c r="Q171" s="37"/>
+      <c r="R171" s="37"/>
+      <c r="S171" s="37"/>
+      <c r="T171" s="37"/>
+      <c r="U171" s="37"/>
+      <c r="V171" s="37"/>
+      <c r="W171" s="37"/>
+      <c r="X171" s="37"/>
+      <c r="Y171" s="37"/>
+      <c r="Z171" s="37"/>
+      <c r="AA171" s="37"/>
+      <c r="AB171" s="37"/>
+      <c r="AC171" s="37"/>
+      <c r="AD171" s="37"/>
+      <c r="AE171" s="37"/>
+      <c r="AF171" s="37"/>
+      <c r="AG171" s="37"/>
+      <c r="AH171" s="37"/>
+      <c r="AI171" s="37"/>
+      <c r="AJ171" s="37"/>
+      <c r="AK171" s="37"/>
+      <c r="AL171" s="37"/>
+      <c r="AM171" s="37"/>
+      <c r="AN171" s="37"/>
+      <c r="AO171" s="37"/>
+      <c r="AP171" s="37"/>
+      <c r="AQ171" s="37"/>
+      <c r="AR171" s="37"/>
+      <c r="AS171" s="37"/>
+      <c r="AT171" s="37"/>
+      <c r="AU171" s="37"/>
+      <c r="AV171" s="37"/>
     </row>
     <row r="172" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="35"/>
-      <c r="L172" s="35"/>
-      <c r="M172" s="35"/>
-      <c r="N172" s="35"/>
-      <c r="O172" s="35"/>
-      <c r="P172" s="35"/>
-      <c r="Q172" s="35"/>
-      <c r="R172" s="35"/>
-      <c r="S172" s="35"/>
-      <c r="T172" s="35"/>
-      <c r="U172" s="35"/>
-      <c r="V172" s="35"/>
-      <c r="W172" s="35"/>
-      <c r="X172" s="35"/>
-      <c r="Y172" s="35"/>
-      <c r="Z172" s="35"/>
-      <c r="AA172" s="35"/>
-      <c r="AB172" s="35"/>
-      <c r="AC172" s="35"/>
-      <c r="AD172" s="35"/>
-      <c r="AE172" s="35"/>
-      <c r="AF172" s="35"/>
-      <c r="AG172" s="35"/>
-      <c r="AH172" s="35"/>
-      <c r="AI172" s="35"/>
-      <c r="AJ172" s="35"/>
-      <c r="AK172" s="35"/>
-      <c r="AL172" s="35"/>
-      <c r="AM172" s="35"/>
-      <c r="AN172" s="35"/>
-      <c r="AO172" s="35"/>
-      <c r="AP172" s="35"/>
-      <c r="AQ172" s="35"/>
-      <c r="AR172" s="35"/>
-      <c r="AS172" s="35"/>
-      <c r="AT172" s="35"/>
-      <c r="AU172" s="35"/>
-      <c r="AV172" s="35"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="37"/>
+      <c r="L172" s="37"/>
+      <c r="M172" s="37"/>
+      <c r="N172" s="37"/>
+      <c r="O172" s="37"/>
+      <c r="P172" s="37"/>
+      <c r="Q172" s="37"/>
+      <c r="R172" s="37"/>
+      <c r="S172" s="37"/>
+      <c r="T172" s="37"/>
+      <c r="U172" s="37"/>
+      <c r="V172" s="37"/>
+      <c r="W172" s="37"/>
+      <c r="X172" s="37"/>
+      <c r="Y172" s="37"/>
+      <c r="Z172" s="37"/>
+      <c r="AA172" s="37"/>
+      <c r="AB172" s="37"/>
+      <c r="AC172" s="37"/>
+      <c r="AD172" s="37"/>
+      <c r="AE172" s="37"/>
+      <c r="AF172" s="37"/>
+      <c r="AG172" s="37"/>
+      <c r="AH172" s="37"/>
+      <c r="AI172" s="37"/>
+      <c r="AJ172" s="37"/>
+      <c r="AK172" s="37"/>
+      <c r="AL172" s="37"/>
+      <c r="AM172" s="37"/>
+      <c r="AN172" s="37"/>
+      <c r="AO172" s="37"/>
+      <c r="AP172" s="37"/>
+      <c r="AQ172" s="37"/>
+      <c r="AR172" s="37"/>
+      <c r="AS172" s="37"/>
+      <c r="AT172" s="37"/>
+      <c r="AU172" s="37"/>
+      <c r="AV172" s="37"/>
     </row>
     <row r="173" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35"/>
-      <c r="L173" s="35"/>
-      <c r="M173" s="35"/>
-      <c r="N173" s="35"/>
-      <c r="O173" s="35"/>
-      <c r="P173" s="35"/>
-      <c r="Q173" s="35"/>
-      <c r="R173" s="35"/>
-      <c r="S173" s="35"/>
-      <c r="T173" s="35"/>
-      <c r="U173" s="35"/>
-      <c r="V173" s="35"/>
-      <c r="W173" s="35"/>
-      <c r="X173" s="35"/>
-      <c r="Y173" s="35"/>
-      <c r="Z173" s="35"/>
-      <c r="AA173" s="35"/>
-      <c r="AB173" s="35"/>
-      <c r="AC173" s="35"/>
-      <c r="AD173" s="35"/>
-      <c r="AE173" s="35"/>
-      <c r="AF173" s="35"/>
-      <c r="AG173" s="35"/>
-      <c r="AH173" s="35"/>
-      <c r="AI173" s="35"/>
-      <c r="AJ173" s="35"/>
-      <c r="AK173" s="35"/>
-      <c r="AL173" s="35"/>
-      <c r="AM173" s="35"/>
-      <c r="AN173" s="35"/>
-      <c r="AO173" s="35"/>
-      <c r="AP173" s="35"/>
-      <c r="AQ173" s="35"/>
-      <c r="AR173" s="35"/>
-      <c r="AS173" s="35"/>
-      <c r="AT173" s="35"/>
-      <c r="AU173" s="35"/>
-      <c r="AV173" s="35"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
+      <c r="K173" s="37"/>
+      <c r="L173" s="37"/>
+      <c r="M173" s="37"/>
+      <c r="N173" s="37"/>
+      <c r="O173" s="37"/>
+      <c r="P173" s="37"/>
+      <c r="Q173" s="37"/>
+      <c r="R173" s="37"/>
+      <c r="S173" s="37"/>
+      <c r="T173" s="37"/>
+      <c r="U173" s="37"/>
+      <c r="V173" s="37"/>
+      <c r="W173" s="37"/>
+      <c r="X173" s="37"/>
+      <c r="Y173" s="37"/>
+      <c r="Z173" s="37"/>
+      <c r="AA173" s="37"/>
+      <c r="AB173" s="37"/>
+      <c r="AC173" s="37"/>
+      <c r="AD173" s="37"/>
+      <c r="AE173" s="37"/>
+      <c r="AF173" s="37"/>
+      <c r="AG173" s="37"/>
+      <c r="AH173" s="37"/>
+      <c r="AI173" s="37"/>
+      <c r="AJ173" s="37"/>
+      <c r="AK173" s="37"/>
+      <c r="AL173" s="37"/>
+      <c r="AM173" s="37"/>
+      <c r="AN173" s="37"/>
+      <c r="AO173" s="37"/>
+      <c r="AP173" s="37"/>
+      <c r="AQ173" s="37"/>
+      <c r="AR173" s="37"/>
+      <c r="AS173" s="37"/>
+      <c r="AT173" s="37"/>
+      <c r="AU173" s="37"/>
+      <c r="AV173" s="37"/>
     </row>
     <row r="174" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="35"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="35"/>
-      <c r="L174" s="35"/>
-      <c r="M174" s="35"/>
-      <c r="N174" s="35"/>
-      <c r="O174" s="35"/>
-      <c r="P174" s="35"/>
-      <c r="Q174" s="35"/>
-      <c r="R174" s="35"/>
-      <c r="S174" s="35"/>
-      <c r="T174" s="35"/>
-      <c r="U174" s="35"/>
-      <c r="V174" s="35"/>
-      <c r="W174" s="35"/>
-      <c r="X174" s="35"/>
-      <c r="Y174" s="35"/>
-      <c r="Z174" s="35"/>
-      <c r="AA174" s="35"/>
-      <c r="AB174" s="35"/>
-      <c r="AC174" s="35"/>
-      <c r="AD174" s="35"/>
-      <c r="AE174" s="35"/>
-      <c r="AF174" s="35"/>
-      <c r="AG174" s="35"/>
-      <c r="AH174" s="35"/>
-      <c r="AI174" s="35"/>
-      <c r="AJ174" s="35"/>
-      <c r="AK174" s="35"/>
-      <c r="AL174" s="35"/>
-      <c r="AM174" s="35"/>
-      <c r="AN174" s="35"/>
-      <c r="AO174" s="35"/>
-      <c r="AP174" s="35"/>
-      <c r="AQ174" s="35"/>
-      <c r="AR174" s="35"/>
-      <c r="AS174" s="35"/>
-      <c r="AT174" s="35"/>
-      <c r="AU174" s="35"/>
-      <c r="AV174" s="35"/>
+      <c r="B174" s="37"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="37"/>
+      <c r="I174" s="37"/>
+      <c r="J174" s="37"/>
+      <c r="K174" s="37"/>
+      <c r="L174" s="37"/>
+      <c r="M174" s="37"/>
+      <c r="N174" s="37"/>
+      <c r="O174" s="37"/>
+      <c r="P174" s="37"/>
+      <c r="Q174" s="37"/>
+      <c r="R174" s="37"/>
+      <c r="S174" s="37"/>
+      <c r="T174" s="37"/>
+      <c r="U174" s="37"/>
+      <c r="V174" s="37"/>
+      <c r="W174" s="37"/>
+      <c r="X174" s="37"/>
+      <c r="Y174" s="37"/>
+      <c r="Z174" s="37"/>
+      <c r="AA174" s="37"/>
+      <c r="AB174" s="37"/>
+      <c r="AC174" s="37"/>
+      <c r="AD174" s="37"/>
+      <c r="AE174" s="37"/>
+      <c r="AF174" s="37"/>
+      <c r="AG174" s="37"/>
+      <c r="AH174" s="37"/>
+      <c r="AI174" s="37"/>
+      <c r="AJ174" s="37"/>
+      <c r="AK174" s="37"/>
+      <c r="AL174" s="37"/>
+      <c r="AM174" s="37"/>
+      <c r="AN174" s="37"/>
+      <c r="AO174" s="37"/>
+      <c r="AP174" s="37"/>
+      <c r="AQ174" s="37"/>
+      <c r="AR174" s="37"/>
+      <c r="AS174" s="37"/>
+      <c r="AT174" s="37"/>
+      <c r="AU174" s="37"/>
+      <c r="AV174" s="37"/>
     </row>
     <row r="175" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35"/>
-      <c r="L175" s="35"/>
-      <c r="M175" s="35"/>
-      <c r="N175" s="35"/>
-      <c r="O175" s="35"/>
-      <c r="P175" s="35"/>
-      <c r="Q175" s="35"/>
-      <c r="R175" s="35"/>
-      <c r="S175" s="35"/>
-      <c r="T175" s="35"/>
-      <c r="U175" s="35"/>
-      <c r="V175" s="35"/>
-      <c r="W175" s="35"/>
-      <c r="X175" s="35"/>
-      <c r="Y175" s="35"/>
-      <c r="Z175" s="35"/>
-      <c r="AA175" s="35"/>
-      <c r="AB175" s="35"/>
-      <c r="AC175" s="35"/>
-      <c r="AD175" s="35"/>
-      <c r="AE175" s="35"/>
-      <c r="AF175" s="35"/>
-      <c r="AG175" s="35"/>
-      <c r="AH175" s="35"/>
-      <c r="AI175" s="35"/>
-      <c r="AJ175" s="35"/>
-      <c r="AK175" s="35"/>
-      <c r="AL175" s="35"/>
-      <c r="AM175" s="35"/>
-      <c r="AN175" s="35"/>
-      <c r="AO175" s="35"/>
-      <c r="AP175" s="35"/>
-      <c r="AQ175" s="35"/>
-      <c r="AR175" s="35"/>
-      <c r="AS175" s="35"/>
-      <c r="AT175" s="35"/>
-      <c r="AU175" s="35"/>
-      <c r="AV175" s="35"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
+      <c r="K175" s="37"/>
+      <c r="L175" s="37"/>
+      <c r="M175" s="37"/>
+      <c r="N175" s="37"/>
+      <c r="O175" s="37"/>
+      <c r="P175" s="37"/>
+      <c r="Q175" s="37"/>
+      <c r="R175" s="37"/>
+      <c r="S175" s="37"/>
+      <c r="T175" s="37"/>
+      <c r="U175" s="37"/>
+      <c r="V175" s="37"/>
+      <c r="W175" s="37"/>
+      <c r="X175" s="37"/>
+      <c r="Y175" s="37"/>
+      <c r="Z175" s="37"/>
+      <c r="AA175" s="37"/>
+      <c r="AB175" s="37"/>
+      <c r="AC175" s="37"/>
+      <c r="AD175" s="37"/>
+      <c r="AE175" s="37"/>
+      <c r="AF175" s="37"/>
+      <c r="AG175" s="37"/>
+      <c r="AH175" s="37"/>
+      <c r="AI175" s="37"/>
+      <c r="AJ175" s="37"/>
+      <c r="AK175" s="37"/>
+      <c r="AL175" s="37"/>
+      <c r="AM175" s="37"/>
+      <c r="AN175" s="37"/>
+      <c r="AO175" s="37"/>
+      <c r="AP175" s="37"/>
+      <c r="AQ175" s="37"/>
+      <c r="AR175" s="37"/>
+      <c r="AS175" s="37"/>
+      <c r="AT175" s="37"/>
+      <c r="AU175" s="37"/>
+      <c r="AV175" s="37"/>
     </row>
     <row r="176" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="35"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="35"/>
-      <c r="I176" s="35"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="35"/>
-      <c r="L176" s="35"/>
-      <c r="M176" s="35"/>
-      <c r="N176" s="35"/>
-      <c r="O176" s="35"/>
-      <c r="P176" s="35"/>
-      <c r="Q176" s="35"/>
-      <c r="R176" s="35"/>
-      <c r="S176" s="35"/>
-      <c r="T176" s="35"/>
-      <c r="U176" s="35"/>
-      <c r="V176" s="35"/>
-      <c r="W176" s="35"/>
-      <c r="X176" s="35"/>
-      <c r="Y176" s="35"/>
-      <c r="Z176" s="35"/>
-      <c r="AA176" s="35"/>
-      <c r="AB176" s="35"/>
-      <c r="AC176" s="35"/>
-      <c r="AD176" s="35"/>
-      <c r="AE176" s="35"/>
-      <c r="AF176" s="35"/>
-      <c r="AG176" s="35"/>
-      <c r="AH176" s="35"/>
-      <c r="AI176" s="35"/>
-      <c r="AJ176" s="35"/>
-      <c r="AK176" s="35"/>
-      <c r="AL176" s="35"/>
-      <c r="AM176" s="35"/>
-      <c r="AN176" s="35"/>
-      <c r="AO176" s="35"/>
-      <c r="AP176" s="35"/>
-      <c r="AQ176" s="35"/>
-      <c r="AR176" s="35"/>
-      <c r="AS176" s="35"/>
-      <c r="AT176" s="35"/>
-      <c r="AU176" s="35"/>
-      <c r="AV176" s="35"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
+      <c r="K176" s="37"/>
+      <c r="L176" s="37"/>
+      <c r="M176" s="37"/>
+      <c r="N176" s="37"/>
+      <c r="O176" s="37"/>
+      <c r="P176" s="37"/>
+      <c r="Q176" s="37"/>
+      <c r="R176" s="37"/>
+      <c r="S176" s="37"/>
+      <c r="T176" s="37"/>
+      <c r="U176" s="37"/>
+      <c r="V176" s="37"/>
+      <c r="W176" s="37"/>
+      <c r="X176" s="37"/>
+      <c r="Y176" s="37"/>
+      <c r="Z176" s="37"/>
+      <c r="AA176" s="37"/>
+      <c r="AB176" s="37"/>
+      <c r="AC176" s="37"/>
+      <c r="AD176" s="37"/>
+      <c r="AE176" s="37"/>
+      <c r="AF176" s="37"/>
+      <c r="AG176" s="37"/>
+      <c r="AH176" s="37"/>
+      <c r="AI176" s="37"/>
+      <c r="AJ176" s="37"/>
+      <c r="AK176" s="37"/>
+      <c r="AL176" s="37"/>
+      <c r="AM176" s="37"/>
+      <c r="AN176" s="37"/>
+      <c r="AO176" s="37"/>
+      <c r="AP176" s="37"/>
+      <c r="AQ176" s="37"/>
+      <c r="AR176" s="37"/>
+      <c r="AS176" s="37"/>
+      <c r="AT176" s="37"/>
+      <c r="AU176" s="37"/>
+      <c r="AV176" s="37"/>
     </row>
     <row r="177" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="35"/>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="35"/>
-      <c r="I177" s="35"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="35"/>
-      <c r="L177" s="35"/>
-      <c r="M177" s="35"/>
-      <c r="N177" s="35"/>
-      <c r="O177" s="35"/>
-      <c r="P177" s="35"/>
-      <c r="Q177" s="35"/>
-      <c r="R177" s="35"/>
-      <c r="S177" s="35"/>
-      <c r="T177" s="35"/>
-      <c r="U177" s="35"/>
-      <c r="V177" s="35"/>
-      <c r="W177" s="35"/>
-      <c r="X177" s="35"/>
-      <c r="Y177" s="35"/>
-      <c r="Z177" s="35"/>
-      <c r="AA177" s="35"/>
-      <c r="AB177" s="35"/>
-      <c r="AC177" s="35"/>
-      <c r="AD177" s="35"/>
-      <c r="AE177" s="35"/>
-      <c r="AF177" s="35"/>
-      <c r="AG177" s="35"/>
-      <c r="AH177" s="35"/>
-      <c r="AI177" s="35"/>
-      <c r="AJ177" s="35"/>
-      <c r="AK177" s="35"/>
-      <c r="AL177" s="35"/>
-      <c r="AM177" s="35"/>
-      <c r="AN177" s="35"/>
-      <c r="AO177" s="35"/>
-      <c r="AP177" s="35"/>
-      <c r="AQ177" s="35"/>
-      <c r="AR177" s="35"/>
-      <c r="AS177" s="35"/>
-      <c r="AT177" s="35"/>
-      <c r="AU177" s="35"/>
-      <c r="AV177" s="35"/>
+      <c r="B177" s="37"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="37"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="37"/>
+      <c r="I177" s="37"/>
+      <c r="J177" s="37"/>
+      <c r="K177" s="37"/>
+      <c r="L177" s="37"/>
+      <c r="M177" s="37"/>
+      <c r="N177" s="37"/>
+      <c r="O177" s="37"/>
+      <c r="P177" s="37"/>
+      <c r="Q177" s="37"/>
+      <c r="R177" s="37"/>
+      <c r="S177" s="37"/>
+      <c r="T177" s="37"/>
+      <c r="U177" s="37"/>
+      <c r="V177" s="37"/>
+      <c r="W177" s="37"/>
+      <c r="X177" s="37"/>
+      <c r="Y177" s="37"/>
+      <c r="Z177" s="37"/>
+      <c r="AA177" s="37"/>
+      <c r="AB177" s="37"/>
+      <c r="AC177" s="37"/>
+      <c r="AD177" s="37"/>
+      <c r="AE177" s="37"/>
+      <c r="AF177" s="37"/>
+      <c r="AG177" s="37"/>
+      <c r="AH177" s="37"/>
+      <c r="AI177" s="37"/>
+      <c r="AJ177" s="37"/>
+      <c r="AK177" s="37"/>
+      <c r="AL177" s="37"/>
+      <c r="AM177" s="37"/>
+      <c r="AN177" s="37"/>
+      <c r="AO177" s="37"/>
+      <c r="AP177" s="37"/>
+      <c r="AQ177" s="37"/>
+      <c r="AR177" s="37"/>
+      <c r="AS177" s="37"/>
+      <c r="AT177" s="37"/>
+      <c r="AU177" s="37"/>
+      <c r="AV177" s="37"/>
     </row>
     <row r="178" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="35"/>
-      <c r="I178" s="35"/>
-      <c r="J178" s="35"/>
-      <c r="K178" s="35"/>
-      <c r="L178" s="35"/>
-      <c r="M178" s="35"/>
-      <c r="N178" s="35"/>
-      <c r="O178" s="35"/>
-      <c r="P178" s="35"/>
-      <c r="Q178" s="35"/>
-      <c r="R178" s="35"/>
-      <c r="S178" s="35"/>
-      <c r="T178" s="35"/>
-      <c r="U178" s="35"/>
-      <c r="V178" s="35"/>
-      <c r="W178" s="35"/>
-      <c r="X178" s="35"/>
-      <c r="Y178" s="35"/>
-      <c r="Z178" s="35"/>
-      <c r="AA178" s="35"/>
-      <c r="AB178" s="35"/>
-      <c r="AC178" s="35"/>
-      <c r="AD178" s="35"/>
-      <c r="AE178" s="35"/>
-      <c r="AF178" s="35"/>
-      <c r="AG178" s="35"/>
-      <c r="AH178" s="35"/>
-      <c r="AI178" s="35"/>
-      <c r="AJ178" s="35"/>
-      <c r="AK178" s="35"/>
-      <c r="AL178" s="35"/>
-      <c r="AM178" s="35"/>
-      <c r="AN178" s="35"/>
-      <c r="AO178" s="35"/>
-      <c r="AP178" s="35"/>
-      <c r="AQ178" s="35"/>
-      <c r="AR178" s="35"/>
-      <c r="AS178" s="35"/>
-      <c r="AT178" s="35"/>
-      <c r="AU178" s="35"/>
-      <c r="AV178" s="35"/>
+      <c r="B178" s="37"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="37"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="37"/>
+      <c r="I178" s="37"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="37"/>
+      <c r="L178" s="37"/>
+      <c r="M178" s="37"/>
+      <c r="N178" s="37"/>
+      <c r="O178" s="37"/>
+      <c r="P178" s="37"/>
+      <c r="Q178" s="37"/>
+      <c r="R178" s="37"/>
+      <c r="S178" s="37"/>
+      <c r="T178" s="37"/>
+      <c r="U178" s="37"/>
+      <c r="V178" s="37"/>
+      <c r="W178" s="37"/>
+      <c r="X178" s="37"/>
+      <c r="Y178" s="37"/>
+      <c r="Z178" s="37"/>
+      <c r="AA178" s="37"/>
+      <c r="AB178" s="37"/>
+      <c r="AC178" s="37"/>
+      <c r="AD178" s="37"/>
+      <c r="AE178" s="37"/>
+      <c r="AF178" s="37"/>
+      <c r="AG178" s="37"/>
+      <c r="AH178" s="37"/>
+      <c r="AI178" s="37"/>
+      <c r="AJ178" s="37"/>
+      <c r="AK178" s="37"/>
+      <c r="AL178" s="37"/>
+      <c r="AM178" s="37"/>
+      <c r="AN178" s="37"/>
+      <c r="AO178" s="37"/>
+      <c r="AP178" s="37"/>
+      <c r="AQ178" s="37"/>
+      <c r="AR178" s="37"/>
+      <c r="AS178" s="37"/>
+      <c r="AT178" s="37"/>
+      <c r="AU178" s="37"/>
+      <c r="AV178" s="37"/>
     </row>
     <row r="179" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="35"/>
-      <c r="I179" s="35"/>
-      <c r="J179" s="35"/>
-      <c r="K179" s="35"/>
-      <c r="L179" s="35"/>
-      <c r="M179" s="35"/>
-      <c r="N179" s="35"/>
-      <c r="O179" s="35"/>
-      <c r="P179" s="35"/>
-      <c r="Q179" s="35"/>
-      <c r="R179" s="35"/>
-      <c r="S179" s="35"/>
-      <c r="T179" s="35"/>
-      <c r="U179" s="35"/>
-      <c r="V179" s="35"/>
-      <c r="W179" s="35"/>
-      <c r="X179" s="35"/>
-      <c r="Y179" s="35"/>
-      <c r="Z179" s="35"/>
-      <c r="AA179" s="35"/>
-      <c r="AB179" s="35"/>
-      <c r="AC179" s="35"/>
-      <c r="AD179" s="35"/>
-      <c r="AE179" s="35"/>
-      <c r="AF179" s="35"/>
-      <c r="AG179" s="35"/>
-      <c r="AH179" s="35"/>
-      <c r="AI179" s="35"/>
-      <c r="AJ179" s="35"/>
-      <c r="AK179" s="35"/>
-      <c r="AL179" s="35"/>
-      <c r="AM179" s="35"/>
-      <c r="AN179" s="35"/>
-      <c r="AO179" s="35"/>
-      <c r="AP179" s="35"/>
-      <c r="AQ179" s="35"/>
-      <c r="AR179" s="35"/>
-      <c r="AS179" s="35"/>
-      <c r="AT179" s="35"/>
-      <c r="AU179" s="35"/>
-      <c r="AV179" s="35"/>
+      <c r="B179" s="37"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="37"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37"/>
+      <c r="K179" s="37"/>
+      <c r="L179" s="37"/>
+      <c r="M179" s="37"/>
+      <c r="N179" s="37"/>
+      <c r="O179" s="37"/>
+      <c r="P179" s="37"/>
+      <c r="Q179" s="37"/>
+      <c r="R179" s="37"/>
+      <c r="S179" s="37"/>
+      <c r="T179" s="37"/>
+      <c r="U179" s="37"/>
+      <c r="V179" s="37"/>
+      <c r="W179" s="37"/>
+      <c r="X179" s="37"/>
+      <c r="Y179" s="37"/>
+      <c r="Z179" s="37"/>
+      <c r="AA179" s="37"/>
+      <c r="AB179" s="37"/>
+      <c r="AC179" s="37"/>
+      <c r="AD179" s="37"/>
+      <c r="AE179" s="37"/>
+      <c r="AF179" s="37"/>
+      <c r="AG179" s="37"/>
+      <c r="AH179" s="37"/>
+      <c r="AI179" s="37"/>
+      <c r="AJ179" s="37"/>
+      <c r="AK179" s="37"/>
+      <c r="AL179" s="37"/>
+      <c r="AM179" s="37"/>
+      <c r="AN179" s="37"/>
+      <c r="AO179" s="37"/>
+      <c r="AP179" s="37"/>
+      <c r="AQ179" s="37"/>
+      <c r="AR179" s="37"/>
+      <c r="AS179" s="37"/>
+      <c r="AT179" s="37"/>
+      <c r="AU179" s="37"/>
+      <c r="AV179" s="37"/>
     </row>
     <row r="180" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="35"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="35"/>
-      <c r="I180" s="35"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35"/>
-      <c r="L180" s="35"/>
-      <c r="M180" s="35"/>
-      <c r="N180" s="35"/>
-      <c r="O180" s="35"/>
-      <c r="P180" s="35"/>
-      <c r="Q180" s="35"/>
-      <c r="R180" s="35"/>
-      <c r="S180" s="35"/>
-      <c r="T180" s="35"/>
-      <c r="U180" s="35"/>
-      <c r="V180" s="35"/>
-      <c r="W180" s="35"/>
-      <c r="X180" s="35"/>
-      <c r="Y180" s="35"/>
-      <c r="Z180" s="35"/>
-      <c r="AA180" s="35"/>
-      <c r="AB180" s="35"/>
-      <c r="AC180" s="35"/>
-      <c r="AD180" s="35"/>
-      <c r="AE180" s="35"/>
-      <c r="AF180" s="35"/>
-      <c r="AG180" s="35"/>
-      <c r="AH180" s="35"/>
-      <c r="AI180" s="35"/>
-      <c r="AJ180" s="35"/>
-      <c r="AK180" s="35"/>
-      <c r="AL180" s="35"/>
-      <c r="AM180" s="35"/>
-      <c r="AN180" s="35"/>
-      <c r="AO180" s="35"/>
-      <c r="AP180" s="35"/>
-      <c r="AQ180" s="35"/>
-      <c r="AR180" s="35"/>
-      <c r="AS180" s="35"/>
-      <c r="AT180" s="35"/>
-      <c r="AU180" s="35"/>
-      <c r="AV180" s="35"/>
+      <c r="B180" s="37"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="37"/>
+      <c r="I180" s="37"/>
+      <c r="J180" s="37"/>
+      <c r="K180" s="37"/>
+      <c r="L180" s="37"/>
+      <c r="M180" s="37"/>
+      <c r="N180" s="37"/>
+      <c r="O180" s="37"/>
+      <c r="P180" s="37"/>
+      <c r="Q180" s="37"/>
+      <c r="R180" s="37"/>
+      <c r="S180" s="37"/>
+      <c r="T180" s="37"/>
+      <c r="U180" s="37"/>
+      <c r="V180" s="37"/>
+      <c r="W180" s="37"/>
+      <c r="X180" s="37"/>
+      <c r="Y180" s="37"/>
+      <c r="Z180" s="37"/>
+      <c r="AA180" s="37"/>
+      <c r="AB180" s="37"/>
+      <c r="AC180" s="37"/>
+      <c r="AD180" s="37"/>
+      <c r="AE180" s="37"/>
+      <c r="AF180" s="37"/>
+      <c r="AG180" s="37"/>
+      <c r="AH180" s="37"/>
+      <c r="AI180" s="37"/>
+      <c r="AJ180" s="37"/>
+      <c r="AK180" s="37"/>
+      <c r="AL180" s="37"/>
+      <c r="AM180" s="37"/>
+      <c r="AN180" s="37"/>
+      <c r="AO180" s="37"/>
+      <c r="AP180" s="37"/>
+      <c r="AQ180" s="37"/>
+      <c r="AR180" s="37"/>
+      <c r="AS180" s="37"/>
+      <c r="AT180" s="37"/>
+      <c r="AU180" s="37"/>
+      <c r="AV180" s="37"/>
     </row>
     <row r="181" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
-      <c r="E181" s="35"/>
-      <c r="F181" s="35"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="35"/>
-      <c r="I181" s="35"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35"/>
-      <c r="L181" s="35"/>
-      <c r="M181" s="35"/>
-      <c r="N181" s="35"/>
-      <c r="O181" s="35"/>
-      <c r="P181" s="35"/>
-      <c r="Q181" s="35"/>
-      <c r="R181" s="35"/>
-      <c r="S181" s="35"/>
-      <c r="T181" s="35"/>
-      <c r="U181" s="35"/>
-      <c r="V181" s="35"/>
-      <c r="W181" s="35"/>
-      <c r="X181" s="35"/>
-      <c r="Y181" s="35"/>
-      <c r="Z181" s="35"/>
-      <c r="AA181" s="35"/>
-      <c r="AB181" s="35"/>
-      <c r="AC181" s="35"/>
-      <c r="AD181" s="35"/>
-      <c r="AE181" s="35"/>
-      <c r="AF181" s="35"/>
-      <c r="AG181" s="35"/>
-      <c r="AH181" s="35"/>
-      <c r="AI181" s="35"/>
-      <c r="AJ181" s="35"/>
-      <c r="AK181" s="35"/>
-      <c r="AL181" s="35"/>
-      <c r="AM181" s="35"/>
-      <c r="AN181" s="35"/>
-      <c r="AO181" s="35"/>
-      <c r="AP181" s="35"/>
-      <c r="AQ181" s="35"/>
-      <c r="AR181" s="35"/>
-      <c r="AS181" s="35"/>
-      <c r="AT181" s="35"/>
-      <c r="AU181" s="35"/>
-      <c r="AV181" s="35"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="37"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="37"/>
+      <c r="K181" s="37"/>
+      <c r="L181" s="37"/>
+      <c r="M181" s="37"/>
+      <c r="N181" s="37"/>
+      <c r="O181" s="37"/>
+      <c r="P181" s="37"/>
+      <c r="Q181" s="37"/>
+      <c r="R181" s="37"/>
+      <c r="S181" s="37"/>
+      <c r="T181" s="37"/>
+      <c r="U181" s="37"/>
+      <c r="V181" s="37"/>
+      <c r="W181" s="37"/>
+      <c r="X181" s="37"/>
+      <c r="Y181" s="37"/>
+      <c r="Z181" s="37"/>
+      <c r="AA181" s="37"/>
+      <c r="AB181" s="37"/>
+      <c r="AC181" s="37"/>
+      <c r="AD181" s="37"/>
+      <c r="AE181" s="37"/>
+      <c r="AF181" s="37"/>
+      <c r="AG181" s="37"/>
+      <c r="AH181" s="37"/>
+      <c r="AI181" s="37"/>
+      <c r="AJ181" s="37"/>
+      <c r="AK181" s="37"/>
+      <c r="AL181" s="37"/>
+      <c r="AM181" s="37"/>
+      <c r="AN181" s="37"/>
+      <c r="AO181" s="37"/>
+      <c r="AP181" s="37"/>
+      <c r="AQ181" s="37"/>
+      <c r="AR181" s="37"/>
+      <c r="AS181" s="37"/>
+      <c r="AT181" s="37"/>
+      <c r="AU181" s="37"/>
+      <c r="AV181" s="37"/>
     </row>
     <row r="182" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="35"/>
-      <c r="L182" s="35"/>
-      <c r="M182" s="35"/>
-      <c r="N182" s="35"/>
-      <c r="O182" s="35"/>
-      <c r="P182" s="35"/>
-      <c r="Q182" s="35"/>
-      <c r="R182" s="35"/>
-      <c r="S182" s="35"/>
-      <c r="T182" s="35"/>
-      <c r="U182" s="35"/>
-      <c r="V182" s="35"/>
-      <c r="W182" s="35"/>
-      <c r="X182" s="35"/>
-      <c r="Y182" s="35"/>
-      <c r="Z182" s="35"/>
-      <c r="AA182" s="35"/>
-      <c r="AB182" s="35"/>
-      <c r="AC182" s="35"/>
-      <c r="AD182" s="35"/>
-      <c r="AE182" s="35"/>
-      <c r="AF182" s="35"/>
-      <c r="AG182" s="35"/>
-      <c r="AH182" s="35"/>
-      <c r="AI182" s="35"/>
-      <c r="AJ182" s="35"/>
-      <c r="AK182" s="35"/>
-      <c r="AL182" s="35"/>
-      <c r="AM182" s="35"/>
-      <c r="AN182" s="35"/>
-      <c r="AO182" s="35"/>
-      <c r="AP182" s="35"/>
-      <c r="AQ182" s="35"/>
-      <c r="AR182" s="35"/>
-      <c r="AS182" s="35"/>
-      <c r="AT182" s="35"/>
-      <c r="AU182" s="35"/>
-      <c r="AV182" s="35"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="37"/>
+      <c r="L182" s="37"/>
+      <c r="M182" s="37"/>
+      <c r="N182" s="37"/>
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="37"/>
+      <c r="R182" s="37"/>
+      <c r="S182" s="37"/>
+      <c r="T182" s="37"/>
+      <c r="U182" s="37"/>
+      <c r="V182" s="37"/>
+      <c r="W182" s="37"/>
+      <c r="X182" s="37"/>
+      <c r="Y182" s="37"/>
+      <c r="Z182" s="37"/>
+      <c r="AA182" s="37"/>
+      <c r="AB182" s="37"/>
+      <c r="AC182" s="37"/>
+      <c r="AD182" s="37"/>
+      <c r="AE182" s="37"/>
+      <c r="AF182" s="37"/>
+      <c r="AG182" s="37"/>
+      <c r="AH182" s="37"/>
+      <c r="AI182" s="37"/>
+      <c r="AJ182" s="37"/>
+      <c r="AK182" s="37"/>
+      <c r="AL182" s="37"/>
+      <c r="AM182" s="37"/>
+      <c r="AN182" s="37"/>
+      <c r="AO182" s="37"/>
+      <c r="AP182" s="37"/>
+      <c r="AQ182" s="37"/>
+      <c r="AR182" s="37"/>
+      <c r="AS182" s="37"/>
+      <c r="AT182" s="37"/>
+      <c r="AU182" s="37"/>
+      <c r="AV182" s="37"/>
     </row>
     <row r="183" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="35"/>
-      <c r="I183" s="35"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="35"/>
-      <c r="L183" s="35"/>
-      <c r="M183" s="35"/>
-      <c r="N183" s="35"/>
-      <c r="O183" s="35"/>
-      <c r="P183" s="35"/>
-      <c r="Q183" s="35"/>
-      <c r="R183" s="35"/>
-      <c r="S183" s="35"/>
-      <c r="T183" s="35"/>
-      <c r="U183" s="35"/>
-      <c r="V183" s="35"/>
-      <c r="W183" s="35"/>
-      <c r="X183" s="35"/>
-      <c r="Y183" s="35"/>
-      <c r="Z183" s="35"/>
-      <c r="AA183" s="35"/>
-      <c r="AB183" s="35"/>
-      <c r="AC183" s="35"/>
-      <c r="AD183" s="35"/>
-      <c r="AE183" s="35"/>
-      <c r="AF183" s="35"/>
-      <c r="AG183" s="35"/>
-      <c r="AH183" s="35"/>
-      <c r="AI183" s="35"/>
-      <c r="AJ183" s="35"/>
-      <c r="AK183" s="35"/>
-      <c r="AL183" s="35"/>
-      <c r="AM183" s="35"/>
-      <c r="AN183" s="35"/>
-      <c r="AO183" s="35"/>
-      <c r="AP183" s="35"/>
-      <c r="AQ183" s="35"/>
-      <c r="AR183" s="35"/>
-      <c r="AS183" s="35"/>
-      <c r="AT183" s="35"/>
-      <c r="AU183" s="35"/>
-      <c r="AV183" s="35"/>
+      <c r="B183" s="37"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="37"/>
+      <c r="I183" s="37"/>
+      <c r="J183" s="37"/>
+      <c r="K183" s="37"/>
+      <c r="L183" s="37"/>
+      <c r="M183" s="37"/>
+      <c r="N183" s="37"/>
+      <c r="O183" s="37"/>
+      <c r="P183" s="37"/>
+      <c r="Q183" s="37"/>
+      <c r="R183" s="37"/>
+      <c r="S183" s="37"/>
+      <c r="T183" s="37"/>
+      <c r="U183" s="37"/>
+      <c r="V183" s="37"/>
+      <c r="W183" s="37"/>
+      <c r="X183" s="37"/>
+      <c r="Y183" s="37"/>
+      <c r="Z183" s="37"/>
+      <c r="AA183" s="37"/>
+      <c r="AB183" s="37"/>
+      <c r="AC183" s="37"/>
+      <c r="AD183" s="37"/>
+      <c r="AE183" s="37"/>
+      <c r="AF183" s="37"/>
+      <c r="AG183" s="37"/>
+      <c r="AH183" s="37"/>
+      <c r="AI183" s="37"/>
+      <c r="AJ183" s="37"/>
+      <c r="AK183" s="37"/>
+      <c r="AL183" s="37"/>
+      <c r="AM183" s="37"/>
+      <c r="AN183" s="37"/>
+      <c r="AO183" s="37"/>
+      <c r="AP183" s="37"/>
+      <c r="AQ183" s="37"/>
+      <c r="AR183" s="37"/>
+      <c r="AS183" s="37"/>
+      <c r="AT183" s="37"/>
+      <c r="AU183" s="37"/>
+      <c r="AV183" s="37"/>
     </row>
     <row r="184" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="35"/>
-      <c r="L184" s="35"/>
-      <c r="M184" s="35"/>
-      <c r="N184" s="35"/>
-      <c r="O184" s="35"/>
-      <c r="P184" s="35"/>
-      <c r="Q184" s="35"/>
-      <c r="R184" s="35"/>
-      <c r="S184" s="35"/>
-      <c r="T184" s="35"/>
-      <c r="U184" s="35"/>
-      <c r="V184" s="35"/>
-      <c r="W184" s="35"/>
-      <c r="X184" s="35"/>
-      <c r="Y184" s="35"/>
-      <c r="Z184" s="35"/>
-      <c r="AA184" s="35"/>
-      <c r="AB184" s="35"/>
-      <c r="AC184" s="35"/>
-      <c r="AD184" s="35"/>
-      <c r="AE184" s="35"/>
-      <c r="AF184" s="35"/>
-      <c r="AG184" s="35"/>
-      <c r="AH184" s="35"/>
-      <c r="AI184" s="35"/>
-      <c r="AJ184" s="35"/>
-      <c r="AK184" s="35"/>
-      <c r="AL184" s="35"/>
-      <c r="AM184" s="35"/>
-      <c r="AN184" s="35"/>
-      <c r="AO184" s="35"/>
-      <c r="AP184" s="35"/>
-      <c r="AQ184" s="35"/>
-      <c r="AR184" s="35"/>
-      <c r="AS184" s="35"/>
-      <c r="AT184" s="35"/>
-      <c r="AU184" s="35"/>
-      <c r="AV184" s="35"/>
+      <c r="B184" s="37"/>
+      <c r="C184" s="37"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="37"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="37"/>
+      <c r="I184" s="37"/>
+      <c r="J184" s="37"/>
+      <c r="K184" s="37"/>
+      <c r="L184" s="37"/>
+      <c r="M184" s="37"/>
+      <c r="N184" s="37"/>
+      <c r="O184" s="37"/>
+      <c r="P184" s="37"/>
+      <c r="Q184" s="37"/>
+      <c r="R184" s="37"/>
+      <c r="S184" s="37"/>
+      <c r="T184" s="37"/>
+      <c r="U184" s="37"/>
+      <c r="V184" s="37"/>
+      <c r="W184" s="37"/>
+      <c r="X184" s="37"/>
+      <c r="Y184" s="37"/>
+      <c r="Z184" s="37"/>
+      <c r="AA184" s="37"/>
+      <c r="AB184" s="37"/>
+      <c r="AC184" s="37"/>
+      <c r="AD184" s="37"/>
+      <c r="AE184" s="37"/>
+      <c r="AF184" s="37"/>
+      <c r="AG184" s="37"/>
+      <c r="AH184" s="37"/>
+      <c r="AI184" s="37"/>
+      <c r="AJ184" s="37"/>
+      <c r="AK184" s="37"/>
+      <c r="AL184" s="37"/>
+      <c r="AM184" s="37"/>
+      <c r="AN184" s="37"/>
+      <c r="AO184" s="37"/>
+      <c r="AP184" s="37"/>
+      <c r="AQ184" s="37"/>
+      <c r="AR184" s="37"/>
+      <c r="AS184" s="37"/>
+      <c r="AT184" s="37"/>
+      <c r="AU184" s="37"/>
+      <c r="AV184" s="37"/>
     </row>
     <row r="185" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="35"/>
-      <c r="G185" s="35"/>
-      <c r="H185" s="35"/>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35"/>
-      <c r="L185" s="35"/>
-      <c r="M185" s="35"/>
-      <c r="N185" s="35"/>
-      <c r="O185" s="35"/>
-      <c r="P185" s="35"/>
-      <c r="Q185" s="35"/>
-      <c r="R185" s="35"/>
-      <c r="S185" s="35"/>
-      <c r="T185" s="35"/>
-      <c r="U185" s="35"/>
-      <c r="V185" s="35"/>
-      <c r="W185" s="35"/>
-      <c r="X185" s="35"/>
-      <c r="Y185" s="35"/>
-      <c r="Z185" s="35"/>
-      <c r="AA185" s="35"/>
-      <c r="AB185" s="35"/>
-      <c r="AC185" s="35"/>
-      <c r="AD185" s="35"/>
-      <c r="AE185" s="35"/>
-      <c r="AF185" s="35"/>
-      <c r="AG185" s="35"/>
-      <c r="AH185" s="35"/>
-      <c r="AI185" s="35"/>
-      <c r="AJ185" s="35"/>
-      <c r="AK185" s="35"/>
-      <c r="AL185" s="35"/>
-      <c r="AM185" s="35"/>
-      <c r="AN185" s="35"/>
-      <c r="AO185" s="35"/>
-      <c r="AP185" s="35"/>
-      <c r="AQ185" s="35"/>
-      <c r="AR185" s="35"/>
-      <c r="AS185" s="35"/>
-      <c r="AT185" s="35"/>
-      <c r="AU185" s="35"/>
-      <c r="AV185" s="35"/>
+      <c r="B185" s="37"/>
+      <c r="C185" s="37"/>
+      <c r="D185" s="37"/>
+      <c r="E185" s="37"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="37"/>
+      <c r="H185" s="37"/>
+      <c r="I185" s="37"/>
+      <c r="J185" s="37"/>
+      <c r="K185" s="37"/>
+      <c r="L185" s="37"/>
+      <c r="M185" s="37"/>
+      <c r="N185" s="37"/>
+      <c r="O185" s="37"/>
+      <c r="P185" s="37"/>
+      <c r="Q185" s="37"/>
+      <c r="R185" s="37"/>
+      <c r="S185" s="37"/>
+      <c r="T185" s="37"/>
+      <c r="U185" s="37"/>
+      <c r="V185" s="37"/>
+      <c r="W185" s="37"/>
+      <c r="X185" s="37"/>
+      <c r="Y185" s="37"/>
+      <c r="Z185" s="37"/>
+      <c r="AA185" s="37"/>
+      <c r="AB185" s="37"/>
+      <c r="AC185" s="37"/>
+      <c r="AD185" s="37"/>
+      <c r="AE185" s="37"/>
+      <c r="AF185" s="37"/>
+      <c r="AG185" s="37"/>
+      <c r="AH185" s="37"/>
+      <c r="AI185" s="37"/>
+      <c r="AJ185" s="37"/>
+      <c r="AK185" s="37"/>
+      <c r="AL185" s="37"/>
+      <c r="AM185" s="37"/>
+      <c r="AN185" s="37"/>
+      <c r="AO185" s="37"/>
+      <c r="AP185" s="37"/>
+      <c r="AQ185" s="37"/>
+      <c r="AR185" s="37"/>
+      <c r="AS185" s="37"/>
+      <c r="AT185" s="37"/>
+      <c r="AU185" s="37"/>
+      <c r="AV185" s="37"/>
     </row>
     <row r="186" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="35"/>
-      <c r="H186" s="35"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35"/>
-      <c r="L186" s="35"/>
-      <c r="M186" s="35"/>
-      <c r="N186" s="35"/>
-      <c r="O186" s="35"/>
-      <c r="P186" s="35"/>
-      <c r="Q186" s="35"/>
-      <c r="R186" s="35"/>
-      <c r="S186" s="35"/>
-      <c r="T186" s="35"/>
-      <c r="U186" s="35"/>
-      <c r="V186" s="35"/>
-      <c r="W186" s="35"/>
-      <c r="X186" s="35"/>
-      <c r="Y186" s="35"/>
-      <c r="Z186" s="35"/>
-      <c r="AA186" s="35"/>
-      <c r="AB186" s="35"/>
-      <c r="AC186" s="35"/>
-      <c r="AD186" s="35"/>
-      <c r="AE186" s="35"/>
-      <c r="AF186" s="35"/>
-      <c r="AG186" s="35"/>
-      <c r="AH186" s="35"/>
-      <c r="AI186" s="35"/>
-      <c r="AJ186" s="35"/>
-      <c r="AK186" s="35"/>
-      <c r="AL186" s="35"/>
-      <c r="AM186" s="35"/>
-      <c r="AN186" s="35"/>
-      <c r="AO186" s="35"/>
-      <c r="AP186" s="35"/>
-      <c r="AQ186" s="35"/>
-      <c r="AR186" s="35"/>
-      <c r="AS186" s="35"/>
-      <c r="AT186" s="35"/>
-      <c r="AU186" s="35"/>
-      <c r="AV186" s="35"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="37"/>
+      <c r="I186" s="37"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="37"/>
+      <c r="L186" s="37"/>
+      <c r="M186" s="37"/>
+      <c r="N186" s="37"/>
+      <c r="O186" s="37"/>
+      <c r="P186" s="37"/>
+      <c r="Q186" s="37"/>
+      <c r="R186" s="37"/>
+      <c r="S186" s="37"/>
+      <c r="T186" s="37"/>
+      <c r="U186" s="37"/>
+      <c r="V186" s="37"/>
+      <c r="W186" s="37"/>
+      <c r="X186" s="37"/>
+      <c r="Y186" s="37"/>
+      <c r="Z186" s="37"/>
+      <c r="AA186" s="37"/>
+      <c r="AB186" s="37"/>
+      <c r="AC186" s="37"/>
+      <c r="AD186" s="37"/>
+      <c r="AE186" s="37"/>
+      <c r="AF186" s="37"/>
+      <c r="AG186" s="37"/>
+      <c r="AH186" s="37"/>
+      <c r="AI186" s="37"/>
+      <c r="AJ186" s="37"/>
+      <c r="AK186" s="37"/>
+      <c r="AL186" s="37"/>
+      <c r="AM186" s="37"/>
+      <c r="AN186" s="37"/>
+      <c r="AO186" s="37"/>
+      <c r="AP186" s="37"/>
+      <c r="AQ186" s="37"/>
+      <c r="AR186" s="37"/>
+      <c r="AS186" s="37"/>
+      <c r="AT186" s="37"/>
+      <c r="AU186" s="37"/>
+      <c r="AV186" s="37"/>
     </row>
     <row r="187" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
-      <c r="L187" s="35"/>
-      <c r="M187" s="35"/>
-      <c r="N187" s="35"/>
-      <c r="O187" s="35"/>
-      <c r="P187" s="35"/>
-      <c r="Q187" s="35"/>
-      <c r="R187" s="35"/>
-      <c r="S187" s="35"/>
-      <c r="T187" s="35"/>
-      <c r="U187" s="35"/>
-      <c r="V187" s="35"/>
-      <c r="W187" s="35"/>
-      <c r="X187" s="35"/>
-      <c r="Y187" s="35"/>
-      <c r="Z187" s="35"/>
-      <c r="AA187" s="35"/>
-      <c r="AB187" s="35"/>
-      <c r="AC187" s="35"/>
-      <c r="AD187" s="35"/>
-      <c r="AE187" s="35"/>
-      <c r="AF187" s="35"/>
-      <c r="AG187" s="35"/>
-      <c r="AH187" s="35"/>
-      <c r="AI187" s="35"/>
-      <c r="AJ187" s="35"/>
-      <c r="AK187" s="35"/>
-      <c r="AL187" s="35"/>
-      <c r="AM187" s="35"/>
-      <c r="AN187" s="35"/>
-      <c r="AO187" s="35"/>
-      <c r="AP187" s="35"/>
-      <c r="AQ187" s="35"/>
-      <c r="AR187" s="35"/>
-      <c r="AS187" s="35"/>
-      <c r="AT187" s="35"/>
-      <c r="AU187" s="35"/>
-      <c r="AV187" s="35"/>
+      <c r="B187" s="37"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="37"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="37"/>
+      <c r="H187" s="37"/>
+      <c r="I187" s="37"/>
+      <c r="J187" s="37"/>
+      <c r="K187" s="37"/>
+      <c r="L187" s="37"/>
+      <c r="M187" s="37"/>
+      <c r="N187" s="37"/>
+      <c r="O187" s="37"/>
+      <c r="P187" s="37"/>
+      <c r="Q187" s="37"/>
+      <c r="R187" s="37"/>
+      <c r="S187" s="37"/>
+      <c r="T187" s="37"/>
+      <c r="U187" s="37"/>
+      <c r="V187" s="37"/>
+      <c r="W187" s="37"/>
+      <c r="X187" s="37"/>
+      <c r="Y187" s="37"/>
+      <c r="Z187" s="37"/>
+      <c r="AA187" s="37"/>
+      <c r="AB187" s="37"/>
+      <c r="AC187" s="37"/>
+      <c r="AD187" s="37"/>
+      <c r="AE187" s="37"/>
+      <c r="AF187" s="37"/>
+      <c r="AG187" s="37"/>
+      <c r="AH187" s="37"/>
+      <c r="AI187" s="37"/>
+      <c r="AJ187" s="37"/>
+      <c r="AK187" s="37"/>
+      <c r="AL187" s="37"/>
+      <c r="AM187" s="37"/>
+      <c r="AN187" s="37"/>
+      <c r="AO187" s="37"/>
+      <c r="AP187" s="37"/>
+      <c r="AQ187" s="37"/>
+      <c r="AR187" s="37"/>
+      <c r="AS187" s="37"/>
+      <c r="AT187" s="37"/>
+      <c r="AU187" s="37"/>
+      <c r="AV187" s="37"/>
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="35"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="35"/>
-      <c r="I188" s="35"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35"/>
-      <c r="L188" s="35"/>
-      <c r="M188" s="35"/>
-      <c r="N188" s="35"/>
-      <c r="O188" s="35"/>
-      <c r="P188" s="35"/>
-      <c r="Q188" s="35"/>
-      <c r="R188" s="35"/>
-      <c r="S188" s="35"/>
-      <c r="T188" s="35"/>
-      <c r="U188" s="35"/>
-      <c r="V188" s="35"/>
-      <c r="W188" s="35"/>
-      <c r="X188" s="35"/>
-      <c r="Y188" s="35"/>
-      <c r="Z188" s="35"/>
-      <c r="AA188" s="35"/>
-      <c r="AB188" s="35"/>
-      <c r="AC188" s="35"/>
-      <c r="AD188" s="35"/>
-      <c r="AE188" s="35"/>
-      <c r="AF188" s="35"/>
-      <c r="AG188" s="35"/>
-      <c r="AH188" s="35"/>
-      <c r="AI188" s="35"/>
-      <c r="AJ188" s="35"/>
-      <c r="AK188" s="35"/>
-      <c r="AL188" s="35"/>
-      <c r="AM188" s="35"/>
-      <c r="AN188" s="35"/>
-      <c r="AO188" s="35"/>
-      <c r="AP188" s="35"/>
-      <c r="AQ188" s="35"/>
-      <c r="AR188" s="35"/>
-      <c r="AS188" s="35"/>
-      <c r="AT188" s="35"/>
-      <c r="AU188" s="35"/>
-      <c r="AV188" s="35"/>
+      <c r="B188" s="37"/>
+      <c r="C188" s="37"/>
+      <c r="D188" s="37"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="37"/>
+      <c r="H188" s="37"/>
+      <c r="I188" s="37"/>
+      <c r="J188" s="37"/>
+      <c r="K188" s="37"/>
+      <c r="L188" s="37"/>
+      <c r="M188" s="37"/>
+      <c r="N188" s="37"/>
+      <c r="O188" s="37"/>
+      <c r="P188" s="37"/>
+      <c r="Q188" s="37"/>
+      <c r="R188" s="37"/>
+      <c r="S188" s="37"/>
+      <c r="T188" s="37"/>
+      <c r="U188" s="37"/>
+      <c r="V188" s="37"/>
+      <c r="W188" s="37"/>
+      <c r="X188" s="37"/>
+      <c r="Y188" s="37"/>
+      <c r="Z188" s="37"/>
+      <c r="AA188" s="37"/>
+      <c r="AB188" s="37"/>
+      <c r="AC188" s="37"/>
+      <c r="AD188" s="37"/>
+      <c r="AE188" s="37"/>
+      <c r="AF188" s="37"/>
+      <c r="AG188" s="37"/>
+      <c r="AH188" s="37"/>
+      <c r="AI188" s="37"/>
+      <c r="AJ188" s="37"/>
+      <c r="AK188" s="37"/>
+      <c r="AL188" s="37"/>
+      <c r="AM188" s="37"/>
+      <c r="AN188" s="37"/>
+      <c r="AO188" s="37"/>
+      <c r="AP188" s="37"/>
+      <c r="AQ188" s="37"/>
+      <c r="AR188" s="37"/>
+      <c r="AS188" s="37"/>
+      <c r="AT188" s="37"/>
+      <c r="AU188" s="37"/>
+      <c r="AV188" s="37"/>
     </row>
     <row r="189" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35"/>
-      <c r="L189" s="35"/>
-      <c r="M189" s="35"/>
-      <c r="N189" s="35"/>
-      <c r="O189" s="35"/>
-      <c r="P189" s="35"/>
-      <c r="Q189" s="35"/>
-      <c r="R189" s="35"/>
-      <c r="S189" s="35"/>
-      <c r="T189" s="35"/>
-      <c r="U189" s="35"/>
-      <c r="V189" s="35"/>
-      <c r="W189" s="35"/>
-      <c r="X189" s="35"/>
-      <c r="Y189" s="35"/>
-      <c r="Z189" s="35"/>
-      <c r="AA189" s="35"/>
-      <c r="AB189" s="35"/>
-      <c r="AC189" s="35"/>
-      <c r="AD189" s="35"/>
-      <c r="AE189" s="35"/>
-      <c r="AF189" s="35"/>
-      <c r="AG189" s="35"/>
-      <c r="AH189" s="35"/>
-      <c r="AI189" s="35"/>
-      <c r="AJ189" s="35"/>
-      <c r="AK189" s="35"/>
-      <c r="AL189" s="35"/>
-      <c r="AM189" s="35"/>
-      <c r="AN189" s="35"/>
-      <c r="AO189" s="35"/>
-      <c r="AP189" s="35"/>
-      <c r="AQ189" s="35"/>
-      <c r="AR189" s="35"/>
-      <c r="AS189" s="35"/>
-      <c r="AT189" s="35"/>
-      <c r="AU189" s="35"/>
-      <c r="AV189" s="35"/>
+      <c r="B189" s="37"/>
+      <c r="C189" s="37"/>
+      <c r="D189" s="37"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="37"/>
+      <c r="H189" s="37"/>
+      <c r="I189" s="37"/>
+      <c r="J189" s="37"/>
+      <c r="K189" s="37"/>
+      <c r="L189" s="37"/>
+      <c r="M189" s="37"/>
+      <c r="N189" s="37"/>
+      <c r="O189" s="37"/>
+      <c r="P189" s="37"/>
+      <c r="Q189" s="37"/>
+      <c r="R189" s="37"/>
+      <c r="S189" s="37"/>
+      <c r="T189" s="37"/>
+      <c r="U189" s="37"/>
+      <c r="V189" s="37"/>
+      <c r="W189" s="37"/>
+      <c r="X189" s="37"/>
+      <c r="Y189" s="37"/>
+      <c r="Z189" s="37"/>
+      <c r="AA189" s="37"/>
+      <c r="AB189" s="37"/>
+      <c r="AC189" s="37"/>
+      <c r="AD189" s="37"/>
+      <c r="AE189" s="37"/>
+      <c r="AF189" s="37"/>
+      <c r="AG189" s="37"/>
+      <c r="AH189" s="37"/>
+      <c r="AI189" s="37"/>
+      <c r="AJ189" s="37"/>
+      <c r="AK189" s="37"/>
+      <c r="AL189" s="37"/>
+      <c r="AM189" s="37"/>
+      <c r="AN189" s="37"/>
+      <c r="AO189" s="37"/>
+      <c r="AP189" s="37"/>
+      <c r="AQ189" s="37"/>
+      <c r="AR189" s="37"/>
+      <c r="AS189" s="37"/>
+      <c r="AT189" s="37"/>
+      <c r="AU189" s="37"/>
+      <c r="AV189" s="37"/>
     </row>
     <row r="190" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="35"/>
-      <c r="G190" s="35"/>
-      <c r="H190" s="35"/>
-      <c r="I190" s="35"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
-      <c r="L190" s="35"/>
-      <c r="M190" s="35"/>
-      <c r="N190" s="35"/>
-      <c r="O190" s="35"/>
-      <c r="P190" s="35"/>
-      <c r="Q190" s="35"/>
-      <c r="R190" s="35"/>
-      <c r="S190" s="35"/>
-      <c r="T190" s="35"/>
-      <c r="U190" s="35"/>
-      <c r="V190" s="35"/>
-      <c r="W190" s="35"/>
-      <c r="X190" s="35"/>
-      <c r="Y190" s="35"/>
-      <c r="Z190" s="35"/>
-      <c r="AA190" s="35"/>
-      <c r="AB190" s="35"/>
-      <c r="AC190" s="35"/>
-      <c r="AD190" s="35"/>
-      <c r="AE190" s="35"/>
-      <c r="AF190" s="35"/>
-      <c r="AG190" s="35"/>
-      <c r="AH190" s="35"/>
-      <c r="AI190" s="35"/>
-      <c r="AJ190" s="35"/>
-      <c r="AK190" s="35"/>
-      <c r="AL190" s="35"/>
-      <c r="AM190" s="35"/>
-      <c r="AN190" s="35"/>
-      <c r="AO190" s="35"/>
-      <c r="AP190" s="35"/>
-      <c r="AQ190" s="35"/>
-      <c r="AR190" s="35"/>
-      <c r="AS190" s="35"/>
-      <c r="AT190" s="35"/>
-      <c r="AU190" s="35"/>
-      <c r="AV190" s="35"/>
+      <c r="B190" s="37"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="37"/>
+      <c r="H190" s="37"/>
+      <c r="I190" s="37"/>
+      <c r="J190" s="37"/>
+      <c r="K190" s="37"/>
+      <c r="L190" s="37"/>
+      <c r="M190" s="37"/>
+      <c r="N190" s="37"/>
+      <c r="O190" s="37"/>
+      <c r="P190" s="37"/>
+      <c r="Q190" s="37"/>
+      <c r="R190" s="37"/>
+      <c r="S190" s="37"/>
+      <c r="T190" s="37"/>
+      <c r="U190" s="37"/>
+      <c r="V190" s="37"/>
+      <c r="W190" s="37"/>
+      <c r="X190" s="37"/>
+      <c r="Y190" s="37"/>
+      <c r="Z190" s="37"/>
+      <c r="AA190" s="37"/>
+      <c r="AB190" s="37"/>
+      <c r="AC190" s="37"/>
+      <c r="AD190" s="37"/>
+      <c r="AE190" s="37"/>
+      <c r="AF190" s="37"/>
+      <c r="AG190" s="37"/>
+      <c r="AH190" s="37"/>
+      <c r="AI190" s="37"/>
+      <c r="AJ190" s="37"/>
+      <c r="AK190" s="37"/>
+      <c r="AL190" s="37"/>
+      <c r="AM190" s="37"/>
+      <c r="AN190" s="37"/>
+      <c r="AO190" s="37"/>
+      <c r="AP190" s="37"/>
+      <c r="AQ190" s="37"/>
+      <c r="AR190" s="37"/>
+      <c r="AS190" s="37"/>
+      <c r="AT190" s="37"/>
+      <c r="AU190" s="37"/>
+      <c r="AV190" s="37"/>
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="35"/>
-      <c r="I191" s="35"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="35"/>
-      <c r="L191" s="35"/>
-      <c r="M191" s="35"/>
-      <c r="N191" s="35"/>
-      <c r="O191" s="35"/>
-      <c r="P191" s="35"/>
-      <c r="Q191" s="35"/>
-      <c r="R191" s="35"/>
-      <c r="S191" s="35"/>
-      <c r="T191" s="35"/>
-      <c r="U191" s="35"/>
-      <c r="V191" s="35"/>
-      <c r="W191" s="35"/>
-      <c r="X191" s="35"/>
-      <c r="Y191" s="35"/>
-      <c r="Z191" s="35"/>
-      <c r="AA191" s="35"/>
-      <c r="AB191" s="35"/>
-      <c r="AC191" s="35"/>
-      <c r="AD191" s="35"/>
-      <c r="AE191" s="35"/>
-      <c r="AF191" s="35"/>
-      <c r="AG191" s="35"/>
-      <c r="AH191" s="35"/>
-      <c r="AI191" s="35"/>
-      <c r="AJ191" s="35"/>
-      <c r="AK191" s="35"/>
-      <c r="AL191" s="35"/>
-      <c r="AM191" s="35"/>
-      <c r="AN191" s="35"/>
-      <c r="AO191" s="35"/>
-      <c r="AP191" s="35"/>
-      <c r="AQ191" s="35"/>
-      <c r="AR191" s="35"/>
-      <c r="AS191" s="35"/>
-      <c r="AT191" s="35"/>
-      <c r="AU191" s="35"/>
-      <c r="AV191" s="35"/>
+      <c r="B191" s="37"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="37"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="37"/>
+      <c r="I191" s="37"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="37"/>
+      <c r="L191" s="37"/>
+      <c r="M191" s="37"/>
+      <c r="N191" s="37"/>
+      <c r="O191" s="37"/>
+      <c r="P191" s="37"/>
+      <c r="Q191" s="37"/>
+      <c r="R191" s="37"/>
+      <c r="S191" s="37"/>
+      <c r="T191" s="37"/>
+      <c r="U191" s="37"/>
+      <c r="V191" s="37"/>
+      <c r="W191" s="37"/>
+      <c r="X191" s="37"/>
+      <c r="Y191" s="37"/>
+      <c r="Z191" s="37"/>
+      <c r="AA191" s="37"/>
+      <c r="AB191" s="37"/>
+      <c r="AC191" s="37"/>
+      <c r="AD191" s="37"/>
+      <c r="AE191" s="37"/>
+      <c r="AF191" s="37"/>
+      <c r="AG191" s="37"/>
+      <c r="AH191" s="37"/>
+      <c r="AI191" s="37"/>
+      <c r="AJ191" s="37"/>
+      <c r="AK191" s="37"/>
+      <c r="AL191" s="37"/>
+      <c r="AM191" s="37"/>
+      <c r="AN191" s="37"/>
+      <c r="AO191" s="37"/>
+      <c r="AP191" s="37"/>
+      <c r="AQ191" s="37"/>
+      <c r="AR191" s="37"/>
+      <c r="AS191" s="37"/>
+      <c r="AT191" s="37"/>
+      <c r="AU191" s="37"/>
+      <c r="AV191" s="37"/>
     </row>
     <row r="192" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="35"/>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="35"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="35"/>
-      <c r="I192" s="35"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35"/>
-      <c r="L192" s="35"/>
-      <c r="M192" s="35"/>
-      <c r="N192" s="35"/>
-      <c r="O192" s="35"/>
-      <c r="P192" s="35"/>
-      <c r="Q192" s="35"/>
-      <c r="R192" s="35"/>
-      <c r="S192" s="35"/>
-      <c r="T192" s="35"/>
-      <c r="U192" s="35"/>
-      <c r="V192" s="35"/>
-      <c r="W192" s="35"/>
-      <c r="X192" s="35"/>
-      <c r="Y192" s="35"/>
-      <c r="Z192" s="35"/>
-      <c r="AA192" s="35"/>
-      <c r="AB192" s="35"/>
-      <c r="AC192" s="35"/>
-      <c r="AD192" s="35"/>
-      <c r="AE192" s="35"/>
-      <c r="AF192" s="35"/>
-      <c r="AG192" s="35"/>
-      <c r="AH192" s="35"/>
-      <c r="AI192" s="35"/>
-      <c r="AJ192" s="35"/>
-      <c r="AK192" s="35"/>
-      <c r="AL192" s="35"/>
-      <c r="AM192" s="35"/>
-      <c r="AN192" s="35"/>
-      <c r="AO192" s="35"/>
-      <c r="AP192" s="35"/>
-      <c r="AQ192" s="35"/>
-      <c r="AR192" s="35"/>
-      <c r="AS192" s="35"/>
-      <c r="AT192" s="35"/>
-      <c r="AU192" s="35"/>
-      <c r="AV192" s="35"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="37"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="37"/>
+      <c r="L192" s="37"/>
+      <c r="M192" s="37"/>
+      <c r="N192" s="37"/>
+      <c r="O192" s="37"/>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="37"/>
+      <c r="R192" s="37"/>
+      <c r="S192" s="37"/>
+      <c r="T192" s="37"/>
+      <c r="U192" s="37"/>
+      <c r="V192" s="37"/>
+      <c r="W192" s="37"/>
+      <c r="X192" s="37"/>
+      <c r="Y192" s="37"/>
+      <c r="Z192" s="37"/>
+      <c r="AA192" s="37"/>
+      <c r="AB192" s="37"/>
+      <c r="AC192" s="37"/>
+      <c r="AD192" s="37"/>
+      <c r="AE192" s="37"/>
+      <c r="AF192" s="37"/>
+      <c r="AG192" s="37"/>
+      <c r="AH192" s="37"/>
+      <c r="AI192" s="37"/>
+      <c r="AJ192" s="37"/>
+      <c r="AK192" s="37"/>
+      <c r="AL192" s="37"/>
+      <c r="AM192" s="37"/>
+      <c r="AN192" s="37"/>
+      <c r="AO192" s="37"/>
+      <c r="AP192" s="37"/>
+      <c r="AQ192" s="37"/>
+      <c r="AR192" s="37"/>
+      <c r="AS192" s="37"/>
+      <c r="AT192" s="37"/>
+      <c r="AU192" s="37"/>
+      <c r="AV192" s="37"/>
     </row>
     <row r="193" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="35"/>
-      <c r="C193" s="35"/>
-      <c r="D193" s="35"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="35"/>
-      <c r="G193" s="35"/>
-      <c r="H193" s="35"/>
-      <c r="I193" s="35"/>
-      <c r="J193" s="35"/>
-      <c r="K193" s="35"/>
-      <c r="L193" s="35"/>
-      <c r="M193" s="35"/>
-      <c r="N193" s="35"/>
-      <c r="O193" s="35"/>
-      <c r="P193" s="35"/>
-      <c r="Q193" s="35"/>
-      <c r="R193" s="35"/>
-      <c r="S193" s="35"/>
-      <c r="T193" s="35"/>
-      <c r="U193" s="35"/>
-      <c r="V193" s="35"/>
-      <c r="W193" s="35"/>
-      <c r="X193" s="35"/>
-      <c r="Y193" s="35"/>
-      <c r="Z193" s="35"/>
-      <c r="AA193" s="35"/>
-      <c r="AB193" s="35"/>
-      <c r="AC193" s="35"/>
-      <c r="AD193" s="35"/>
-      <c r="AE193" s="35"/>
-      <c r="AF193" s="35"/>
-      <c r="AG193" s="35"/>
-      <c r="AH193" s="35"/>
-      <c r="AI193" s="35"/>
-      <c r="AJ193" s="35"/>
-      <c r="AK193" s="35"/>
-      <c r="AL193" s="35"/>
-      <c r="AM193" s="35"/>
-      <c r="AN193" s="35"/>
-      <c r="AO193" s="35"/>
-      <c r="AP193" s="35"/>
-      <c r="AQ193" s="35"/>
-      <c r="AR193" s="35"/>
-      <c r="AS193" s="35"/>
-      <c r="AT193" s="35"/>
-      <c r="AU193" s="35"/>
-      <c r="AV193" s="35"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="37"/>
+      <c r="I193" s="37"/>
+      <c r="J193" s="37"/>
+      <c r="K193" s="37"/>
+      <c r="L193" s="37"/>
+      <c r="M193" s="37"/>
+      <c r="N193" s="37"/>
+      <c r="O193" s="37"/>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="37"/>
+      <c r="R193" s="37"/>
+      <c r="S193" s="37"/>
+      <c r="T193" s="37"/>
+      <c r="U193" s="37"/>
+      <c r="V193" s="37"/>
+      <c r="W193" s="37"/>
+      <c r="X193" s="37"/>
+      <c r="Y193" s="37"/>
+      <c r="Z193" s="37"/>
+      <c r="AA193" s="37"/>
+      <c r="AB193" s="37"/>
+      <c r="AC193" s="37"/>
+      <c r="AD193" s="37"/>
+      <c r="AE193" s="37"/>
+      <c r="AF193" s="37"/>
+      <c r="AG193" s="37"/>
+      <c r="AH193" s="37"/>
+      <c r="AI193" s="37"/>
+      <c r="AJ193" s="37"/>
+      <c r="AK193" s="37"/>
+      <c r="AL193" s="37"/>
+      <c r="AM193" s="37"/>
+      <c r="AN193" s="37"/>
+      <c r="AO193" s="37"/>
+      <c r="AP193" s="37"/>
+      <c r="AQ193" s="37"/>
+      <c r="AR193" s="37"/>
+      <c r="AS193" s="37"/>
+      <c r="AT193" s="37"/>
+      <c r="AU193" s="37"/>
+      <c r="AV193" s="37"/>
     </row>
     <row r="194" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="35"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="35"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="35"/>
-      <c r="J194" s="35"/>
-      <c r="K194" s="35"/>
-      <c r="L194" s="35"/>
-      <c r="M194" s="35"/>
-      <c r="N194" s="35"/>
-      <c r="O194" s="35"/>
-      <c r="P194" s="35"/>
-      <c r="Q194" s="35"/>
-      <c r="R194" s="35"/>
-      <c r="S194" s="35"/>
-      <c r="T194" s="35"/>
-      <c r="U194" s="35"/>
-      <c r="V194" s="35"/>
-      <c r="W194" s="35"/>
-      <c r="X194" s="35"/>
-      <c r="Y194" s="35"/>
-      <c r="Z194" s="35"/>
-      <c r="AA194" s="35"/>
-      <c r="AB194" s="35"/>
-      <c r="AC194" s="35"/>
-      <c r="AD194" s="35"/>
-      <c r="AE194" s="35"/>
-      <c r="AF194" s="35"/>
-      <c r="AG194" s="35"/>
-      <c r="AH194" s="35"/>
-      <c r="AI194" s="35"/>
-      <c r="AJ194" s="35"/>
-      <c r="AK194" s="35"/>
-      <c r="AL194" s="35"/>
-      <c r="AM194" s="35"/>
-      <c r="AN194" s="35"/>
-      <c r="AO194" s="35"/>
-      <c r="AP194" s="35"/>
-      <c r="AQ194" s="35"/>
-      <c r="AR194" s="35"/>
-      <c r="AS194" s="35"/>
-      <c r="AT194" s="35"/>
-      <c r="AU194" s="35"/>
-      <c r="AV194" s="35"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="37"/>
+      <c r="I194" s="37"/>
+      <c r="J194" s="37"/>
+      <c r="K194" s="37"/>
+      <c r="L194" s="37"/>
+      <c r="M194" s="37"/>
+      <c r="N194" s="37"/>
+      <c r="O194" s="37"/>
+      <c r="P194" s="37"/>
+      <c r="Q194" s="37"/>
+      <c r="R194" s="37"/>
+      <c r="S194" s="37"/>
+      <c r="T194" s="37"/>
+      <c r="U194" s="37"/>
+      <c r="V194" s="37"/>
+      <c r="W194" s="37"/>
+      <c r="X194" s="37"/>
+      <c r="Y194" s="37"/>
+      <c r="Z194" s="37"/>
+      <c r="AA194" s="37"/>
+      <c r="AB194" s="37"/>
+      <c r="AC194" s="37"/>
+      <c r="AD194" s="37"/>
+      <c r="AE194" s="37"/>
+      <c r="AF194" s="37"/>
+      <c r="AG194" s="37"/>
+      <c r="AH194" s="37"/>
+      <c r="AI194" s="37"/>
+      <c r="AJ194" s="37"/>
+      <c r="AK194" s="37"/>
+      <c r="AL194" s="37"/>
+      <c r="AM194" s="37"/>
+      <c r="AN194" s="37"/>
+      <c r="AO194" s="37"/>
+      <c r="AP194" s="37"/>
+      <c r="AQ194" s="37"/>
+      <c r="AR194" s="37"/>
+      <c r="AS194" s="37"/>
+      <c r="AT194" s="37"/>
+      <c r="AU194" s="37"/>
+      <c r="AV194" s="37"/>
     </row>
     <row r="195" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="35"/>
-      <c r="C195" s="35"/>
-      <c r="D195" s="35"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="35"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="35"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="35"/>
-      <c r="L195" s="35"/>
-      <c r="M195" s="35"/>
-      <c r="N195" s="35"/>
-      <c r="O195" s="35"/>
-      <c r="P195" s="35"/>
-      <c r="Q195" s="35"/>
-      <c r="R195" s="35"/>
-      <c r="S195" s="35"/>
-      <c r="T195" s="35"/>
-      <c r="U195" s="35"/>
-      <c r="V195" s="35"/>
-      <c r="W195" s="35"/>
-      <c r="X195" s="35"/>
-      <c r="Y195" s="35"/>
-      <c r="Z195" s="35"/>
-      <c r="AA195" s="35"/>
-      <c r="AB195" s="35"/>
-      <c r="AC195" s="35"/>
-      <c r="AD195" s="35"/>
-      <c r="AE195" s="35"/>
-      <c r="AF195" s="35"/>
-      <c r="AG195" s="35"/>
-      <c r="AH195" s="35"/>
-      <c r="AI195" s="35"/>
-      <c r="AJ195" s="35"/>
-      <c r="AK195" s="35"/>
-      <c r="AL195" s="35"/>
-      <c r="AM195" s="35"/>
-      <c r="AN195" s="35"/>
-      <c r="AO195" s="35"/>
-      <c r="AP195" s="35"/>
-      <c r="AQ195" s="35"/>
-      <c r="AR195" s="35"/>
-      <c r="AS195" s="35"/>
-      <c r="AT195" s="35"/>
-      <c r="AU195" s="35"/>
-      <c r="AV195" s="35"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="37"/>
+      <c r="I195" s="37"/>
+      <c r="J195" s="37"/>
+      <c r="K195" s="37"/>
+      <c r="L195" s="37"/>
+      <c r="M195" s="37"/>
+      <c r="N195" s="37"/>
+      <c r="O195" s="37"/>
+      <c r="P195" s="37"/>
+      <c r="Q195" s="37"/>
+      <c r="R195" s="37"/>
+      <c r="S195" s="37"/>
+      <c r="T195" s="37"/>
+      <c r="U195" s="37"/>
+      <c r="V195" s="37"/>
+      <c r="W195" s="37"/>
+      <c r="X195" s="37"/>
+      <c r="Y195" s="37"/>
+      <c r="Z195" s="37"/>
+      <c r="AA195" s="37"/>
+      <c r="AB195" s="37"/>
+      <c r="AC195" s="37"/>
+      <c r="AD195" s="37"/>
+      <c r="AE195" s="37"/>
+      <c r="AF195" s="37"/>
+      <c r="AG195" s="37"/>
+      <c r="AH195" s="37"/>
+      <c r="AI195" s="37"/>
+      <c r="AJ195" s="37"/>
+      <c r="AK195" s="37"/>
+      <c r="AL195" s="37"/>
+      <c r="AM195" s="37"/>
+      <c r="AN195" s="37"/>
+      <c r="AO195" s="37"/>
+      <c r="AP195" s="37"/>
+      <c r="AQ195" s="37"/>
+      <c r="AR195" s="37"/>
+      <c r="AS195" s="37"/>
+      <c r="AT195" s="37"/>
+      <c r="AU195" s="37"/>
+      <c r="AV195" s="37"/>
     </row>
     <row r="196" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="35"/>
-      <c r="C196" s="35"/>
-      <c r="D196" s="35"/>
-      <c r="E196" s="35"/>
-      <c r="F196" s="35"/>
-      <c r="G196" s="35"/>
-      <c r="H196" s="35"/>
-      <c r="I196" s="35"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="35"/>
-      <c r="L196" s="35"/>
-      <c r="M196" s="35"/>
-      <c r="N196" s="35"/>
-      <c r="O196" s="35"/>
-      <c r="P196" s="35"/>
-      <c r="Q196" s="35"/>
-      <c r="R196" s="35"/>
-      <c r="S196" s="35"/>
-      <c r="T196" s="35"/>
-      <c r="U196" s="35"/>
-      <c r="V196" s="35"/>
-      <c r="W196" s="35"/>
-      <c r="X196" s="35"/>
-      <c r="Y196" s="35"/>
-      <c r="Z196" s="35"/>
-      <c r="AA196" s="35"/>
-      <c r="AB196" s="35"/>
-      <c r="AC196" s="35"/>
-      <c r="AD196" s="35"/>
-      <c r="AE196" s="35"/>
-      <c r="AF196" s="35"/>
-      <c r="AG196" s="35"/>
-      <c r="AH196" s="35"/>
-      <c r="AI196" s="35"/>
-      <c r="AJ196" s="35"/>
-      <c r="AK196" s="35"/>
-      <c r="AL196" s="35"/>
-      <c r="AM196" s="35"/>
-      <c r="AN196" s="35"/>
-      <c r="AO196" s="35"/>
-      <c r="AP196" s="35"/>
-      <c r="AQ196" s="35"/>
-      <c r="AR196" s="35"/>
-      <c r="AS196" s="35"/>
-      <c r="AT196" s="35"/>
-      <c r="AU196" s="35"/>
-      <c r="AV196" s="35"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="37"/>
+      <c r="I196" s="37"/>
+      <c r="J196" s="37"/>
+      <c r="K196" s="37"/>
+      <c r="L196" s="37"/>
+      <c r="M196" s="37"/>
+      <c r="N196" s="37"/>
+      <c r="O196" s="37"/>
+      <c r="P196" s="37"/>
+      <c r="Q196" s="37"/>
+      <c r="R196" s="37"/>
+      <c r="S196" s="37"/>
+      <c r="T196" s="37"/>
+      <c r="U196" s="37"/>
+      <c r="V196" s="37"/>
+      <c r="W196" s="37"/>
+      <c r="X196" s="37"/>
+      <c r="Y196" s="37"/>
+      <c r="Z196" s="37"/>
+      <c r="AA196" s="37"/>
+      <c r="AB196" s="37"/>
+      <c r="AC196" s="37"/>
+      <c r="AD196" s="37"/>
+      <c r="AE196" s="37"/>
+      <c r="AF196" s="37"/>
+      <c r="AG196" s="37"/>
+      <c r="AH196" s="37"/>
+      <c r="AI196" s="37"/>
+      <c r="AJ196" s="37"/>
+      <c r="AK196" s="37"/>
+      <c r="AL196" s="37"/>
+      <c r="AM196" s="37"/>
+      <c r="AN196" s="37"/>
+      <c r="AO196" s="37"/>
+      <c r="AP196" s="37"/>
+      <c r="AQ196" s="37"/>
+      <c r="AR196" s="37"/>
+      <c r="AS196" s="37"/>
+      <c r="AT196" s="37"/>
+      <c r="AU196" s="37"/>
+      <c r="AV196" s="37"/>
     </row>
     <row r="197" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="35"/>
-      <c r="C197" s="35"/>
-      <c r="D197" s="35"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="35"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="35"/>
-      <c r="I197" s="35"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="35"/>
-      <c r="L197" s="35"/>
-      <c r="M197" s="35"/>
-      <c r="N197" s="35"/>
-      <c r="O197" s="35"/>
-      <c r="P197" s="35"/>
-      <c r="Q197" s="35"/>
-      <c r="R197" s="35"/>
-      <c r="S197" s="35"/>
-      <c r="T197" s="35"/>
-      <c r="U197" s="35"/>
-      <c r="V197" s="35"/>
-      <c r="W197" s="35"/>
-      <c r="X197" s="35"/>
-      <c r="Y197" s="35"/>
-      <c r="Z197" s="35"/>
-      <c r="AA197" s="35"/>
-      <c r="AB197" s="35"/>
-      <c r="AC197" s="35"/>
-      <c r="AD197" s="35"/>
-      <c r="AE197" s="35"/>
-      <c r="AF197" s="35"/>
-      <c r="AG197" s="35"/>
-      <c r="AH197" s="35"/>
-      <c r="AI197" s="35"/>
-      <c r="AJ197" s="35"/>
-      <c r="AK197" s="35"/>
-      <c r="AL197" s="35"/>
-      <c r="AM197" s="35"/>
-      <c r="AN197" s="35"/>
-      <c r="AO197" s="35"/>
-      <c r="AP197" s="35"/>
-      <c r="AQ197" s="35"/>
-      <c r="AR197" s="35"/>
-      <c r="AS197" s="35"/>
-      <c r="AT197" s="35"/>
-      <c r="AU197" s="35"/>
-      <c r="AV197" s="35"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="37"/>
+      <c r="E197" s="37"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="37"/>
+      <c r="H197" s="37"/>
+      <c r="I197" s="37"/>
+      <c r="J197" s="37"/>
+      <c r="K197" s="37"/>
+      <c r="L197" s="37"/>
+      <c r="M197" s="37"/>
+      <c r="N197" s="37"/>
+      <c r="O197" s="37"/>
+      <c r="P197" s="37"/>
+      <c r="Q197" s="37"/>
+      <c r="R197" s="37"/>
+      <c r="S197" s="37"/>
+      <c r="T197" s="37"/>
+      <c r="U197" s="37"/>
+      <c r="V197" s="37"/>
+      <c r="W197" s="37"/>
+      <c r="X197" s="37"/>
+      <c r="Y197" s="37"/>
+      <c r="Z197" s="37"/>
+      <c r="AA197" s="37"/>
+      <c r="AB197" s="37"/>
+      <c r="AC197" s="37"/>
+      <c r="AD197" s="37"/>
+      <c r="AE197" s="37"/>
+      <c r="AF197" s="37"/>
+      <c r="AG197" s="37"/>
+      <c r="AH197" s="37"/>
+      <c r="AI197" s="37"/>
+      <c r="AJ197" s="37"/>
+      <c r="AK197" s="37"/>
+      <c r="AL197" s="37"/>
+      <c r="AM197" s="37"/>
+      <c r="AN197" s="37"/>
+      <c r="AO197" s="37"/>
+      <c r="AP197" s="37"/>
+      <c r="AQ197" s="37"/>
+      <c r="AR197" s="37"/>
+      <c r="AS197" s="37"/>
+      <c r="AT197" s="37"/>
+      <c r="AU197" s="37"/>
+      <c r="AV197" s="37"/>
     </row>
     <row r="198" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="35"/>
-      <c r="C198" s="35"/>
-      <c r="D198" s="35"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="35"/>
-      <c r="I198" s="35"/>
-      <c r="J198" s="35"/>
-      <c r="K198" s="35"/>
-      <c r="L198" s="35"/>
-      <c r="M198" s="35"/>
-      <c r="N198" s="35"/>
-      <c r="O198" s="35"/>
-      <c r="P198" s="35"/>
-      <c r="Q198" s="35"/>
-      <c r="R198" s="35"/>
-      <c r="S198" s="35"/>
-      <c r="T198" s="35"/>
-      <c r="U198" s="35"/>
-      <c r="V198" s="35"/>
-      <c r="W198" s="35"/>
-      <c r="X198" s="35"/>
-      <c r="Y198" s="35"/>
-      <c r="Z198" s="35"/>
-      <c r="AA198" s="35"/>
-      <c r="AB198" s="35"/>
-      <c r="AC198" s="35"/>
-      <c r="AD198" s="35"/>
-      <c r="AE198" s="35"/>
-      <c r="AF198" s="35"/>
-      <c r="AG198" s="35"/>
-      <c r="AH198" s="35"/>
-      <c r="AI198" s="35"/>
-      <c r="AJ198" s="35"/>
-      <c r="AK198" s="35"/>
-      <c r="AL198" s="35"/>
-      <c r="AM198" s="35"/>
-      <c r="AN198" s="35"/>
-      <c r="AO198" s="35"/>
-      <c r="AP198" s="35"/>
-      <c r="AQ198" s="35"/>
-      <c r="AR198" s="35"/>
-      <c r="AS198" s="35"/>
-      <c r="AT198" s="35"/>
-      <c r="AU198" s="35"/>
-      <c r="AV198" s="35"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="37"/>
+      <c r="E198" s="37"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="37"/>
+      <c r="H198" s="37"/>
+      <c r="I198" s="37"/>
+      <c r="J198" s="37"/>
+      <c r="K198" s="37"/>
+      <c r="L198" s="37"/>
+      <c r="M198" s="37"/>
+      <c r="N198" s="37"/>
+      <c r="O198" s="37"/>
+      <c r="P198" s="37"/>
+      <c r="Q198" s="37"/>
+      <c r="R198" s="37"/>
+      <c r="S198" s="37"/>
+      <c r="T198" s="37"/>
+      <c r="U198" s="37"/>
+      <c r="V198" s="37"/>
+      <c r="W198" s="37"/>
+      <c r="X198" s="37"/>
+      <c r="Y198" s="37"/>
+      <c r="Z198" s="37"/>
+      <c r="AA198" s="37"/>
+      <c r="AB198" s="37"/>
+      <c r="AC198" s="37"/>
+      <c r="AD198" s="37"/>
+      <c r="AE198" s="37"/>
+      <c r="AF198" s="37"/>
+      <c r="AG198" s="37"/>
+      <c r="AH198" s="37"/>
+      <c r="AI198" s="37"/>
+      <c r="AJ198" s="37"/>
+      <c r="AK198" s="37"/>
+      <c r="AL198" s="37"/>
+      <c r="AM198" s="37"/>
+      <c r="AN198" s="37"/>
+      <c r="AO198" s="37"/>
+      <c r="AP198" s="37"/>
+      <c r="AQ198" s="37"/>
+      <c r="AR198" s="37"/>
+      <c r="AS198" s="37"/>
+      <c r="AT198" s="37"/>
+      <c r="AU198" s="37"/>
+      <c r="AV198" s="37"/>
     </row>
     <row r="199" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
@@ -27213,17 +26776,12 @@
       <c r="AV213" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lzjUmjbhPxudlNRtR6I5cMppIak3bIm7ApxG8Z3mkLvfj6Bl9hdDypRl1ozQ4/TPHODh3vu28pDsqA8vEqUD0w==" saltValue="MlQHG2D5iCjjrtblmQXEBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J8kxliPutx3jiHaMmavVbDbdCzS4AfbxL/ONanISJNC83eoQfhbI0cIXw7jaxXhe7bBkHyGyBnXtyHDLjaqYbA==" saltValue="/UY2X8JbPgc131UBvy7sbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:P88"/>
   <sortState ref="B120:K157">
     <sortCondition ref="B120"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="B166:AV198"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="R136:S136"/>
     <mergeCell ref="A2:A87"/>
     <mergeCell ref="A90:A118"/>
     <mergeCell ref="A121:A157"/>
@@ -27236,6 +26794,11 @@
     <mergeCell ref="R128:S128"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="B166:AV198"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="R136:S136"/>
   </mergeCells>
   <conditionalFormatting sqref="C92">
     <cfRule type="colorScale" priority="13">
